--- a/data/pots_C2M52.xlsx
+++ b/data/pots_C2M52.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis/Documents/Encadrements/Stages/2021 - M2 Endopolyploidy/R_Git_PLASTENDO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE9B602-6256-8149-B28F-201621022542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1823EFA-A5F3-3646-B3E2-B7041D3B74F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="1840" windowWidth="27600" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="1840" windowWidth="27600" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pots_C2M52" sheetId="1" r:id="rId1"/>
-    <sheet name="TCD" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="TCD" sheetId="2" r:id="rId3"/>
+    <sheet name="pots_C2M52 (semis)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="43">
   <si>
     <t>idPot</t>
   </si>
@@ -148,12 +150,18 @@
   <si>
     <t>Nombre de idPot</t>
   </si>
+  <si>
+    <t>☐</t>
+  </si>
+  <si>
+    <t>sown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -172,16 +180,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -318,13 +344,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -386,6 +427,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4069,7 +4140,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{911386B1-68A1-1A4B-AF25-12A6A78B3270}" name="Tableau croisé dynamique1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{911386B1-68A1-1A4B-AF25-12A6A78B3270}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -5322,7 +5393,7 @@
   </sheetPr>
   <dimension ref="A1:E505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -13931,6 +14002,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684A2558-F19E-1847-8240-E1867205728B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D5BE51-6485-9440-BAF7-1B7998A5FAFA}">
   <dimension ref="A3:D35"/>
   <sheetViews>
@@ -14405,4 +14488,6692 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1836AFA0-EF1A-8346-8E5B-AD7E13217C6D}">
+  <dimension ref="A1:X301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:X75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="8.33203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
+        <v>31</v>
+      </c>
+      <c r="B2" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="25">
+        <v>14</v>
+      </c>
+      <c r="G2" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="25">
+        <v>21</v>
+      </c>
+      <c r="L2" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="25">
+        <v>15</v>
+      </c>
+      <c r="V2" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>74</v>
+      </c>
+      <c r="B3" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="25">
+        <v>43</v>
+      </c>
+      <c r="G3" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="25">
+        <v>27</v>
+      </c>
+      <c r="L3" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="25">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="25">
+        <v>63</v>
+      </c>
+      <c r="V3" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>79</v>
+      </c>
+      <c r="B4" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="25">
+        <v>45</v>
+      </c>
+      <c r="G4" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="25">
+        <v>54</v>
+      </c>
+      <c r="L4" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="25">
+        <v>99</v>
+      </c>
+      <c r="V4" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>89</v>
+      </c>
+      <c r="B5" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="25">
+        <v>159</v>
+      </c>
+      <c r="G5" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="25">
+        <v>70</v>
+      </c>
+      <c r="L5" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="25">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="25">
+        <v>102</v>
+      </c>
+      <c r="V5" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>97</v>
+      </c>
+      <c r="B6" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="25">
+        <v>170</v>
+      </c>
+      <c r="G6" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="25">
+        <v>71</v>
+      </c>
+      <c r="L6" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="25">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="25">
+        <v>108</v>
+      </c>
+      <c r="V6" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>158</v>
+      </c>
+      <c r="B7" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="25">
+        <v>178</v>
+      </c>
+      <c r="G7" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="25">
+        <v>144</v>
+      </c>
+      <c r="L7" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="25">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="25">
+        <v>118</v>
+      </c>
+      <c r="V7" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>163</v>
+      </c>
+      <c r="B8" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="25">
+        <v>248</v>
+      </c>
+      <c r="G8" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="25">
+        <v>166</v>
+      </c>
+      <c r="L8" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="25">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="25">
+        <v>122</v>
+      </c>
+      <c r="V8" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
+        <v>220</v>
+      </c>
+      <c r="B9" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="25">
+        <v>307</v>
+      </c>
+      <c r="G9" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="25">
+        <v>171</v>
+      </c>
+      <c r="L9" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="25">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="25">
+        <v>133</v>
+      </c>
+      <c r="V9" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
+        <v>243</v>
+      </c>
+      <c r="B10" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="25">
+        <v>333</v>
+      </c>
+      <c r="G10" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="25">
+        <v>261</v>
+      </c>
+      <c r="L10" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="25">
+        <v>236</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="25">
+        <v>140</v>
+      </c>
+      <c r="V10" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>249</v>
+      </c>
+      <c r="B11" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="25">
+        <v>346</v>
+      </c>
+      <c r="G11" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="25">
+        <v>262</v>
+      </c>
+      <c r="L11" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="25">
+        <v>245</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="25">
+        <v>185</v>
+      </c>
+      <c r="V11" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
+        <v>287</v>
+      </c>
+      <c r="B12" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="25">
+        <v>370</v>
+      </c>
+      <c r="G12" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="25">
+        <v>290</v>
+      </c>
+      <c r="L12" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="25">
+        <v>374</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="25">
+        <v>233</v>
+      </c>
+      <c r="V12" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>293</v>
+      </c>
+      <c r="B13" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="25">
+        <v>380</v>
+      </c>
+      <c r="G13" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="25">
+        <v>316</v>
+      </c>
+      <c r="L13" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="25">
+        <v>392</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="25">
+        <v>253</v>
+      </c>
+      <c r="V13" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>299</v>
+      </c>
+      <c r="B14" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="25">
+        <v>384</v>
+      </c>
+      <c r="G14" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="25">
+        <v>325</v>
+      </c>
+      <c r="L14" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="25">
+        <v>443</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="25">
+        <v>257</v>
+      </c>
+      <c r="V14" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>319</v>
+      </c>
+      <c r="B15" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="25">
+        <v>412</v>
+      </c>
+      <c r="G15" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="25">
+        <v>385</v>
+      </c>
+      <c r="L15" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="25">
+        <v>458</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="25">
+        <v>284</v>
+      </c>
+      <c r="V15" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
+        <v>422</v>
+      </c>
+      <c r="B16" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="25">
+        <v>449</v>
+      </c>
+      <c r="G16" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="25">
+        <v>411</v>
+      </c>
+      <c r="L16" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="25">
+        <v>478</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" s="25">
+        <v>334</v>
+      </c>
+      <c r="V16" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>425</v>
+      </c>
+      <c r="B17" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="25">
+        <v>468</v>
+      </c>
+      <c r="G17" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="25">
+        <v>450</v>
+      </c>
+      <c r="L17" s="26">
+        <v>6911</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="25">
+        <v>484</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>6915</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="25">
+        <v>377</v>
+      </c>
+      <c r="V17" s="26">
+        <v>9507</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
+        <v>433</v>
+      </c>
+      <c r="B18" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="25">
+        <v>473</v>
+      </c>
+      <c r="G18" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="29">
+        <v>4</v>
+      </c>
+      <c r="L18" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="29">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="29">
+        <v>41</v>
+      </c>
+      <c r="V18" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
+        <v>480</v>
+      </c>
+      <c r="B19" s="26">
+        <v>6897</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="25">
+        <v>489</v>
+      </c>
+      <c r="G19" s="26">
+        <v>9943</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="29">
+        <v>40</v>
+      </c>
+      <c r="L19" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="29">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="29">
+        <v>87</v>
+      </c>
+      <c r="V19" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>5</v>
+      </c>
+      <c r="B20" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="29">
+        <v>56</v>
+      </c>
+      <c r="G20" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="29">
+        <v>48</v>
+      </c>
+      <c r="L20" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="29">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="29">
+        <v>186</v>
+      </c>
+      <c r="V20" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>101</v>
+      </c>
+      <c r="B21" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="29">
+        <v>62</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="29">
+        <v>55</v>
+      </c>
+      <c r="L21" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="29">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="29">
+        <v>191</v>
+      </c>
+      <c r="V21" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>164</v>
+      </c>
+      <c r="B22" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="29">
+        <v>65</v>
+      </c>
+      <c r="G22" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="29">
+        <v>69</v>
+      </c>
+      <c r="L22" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="29">
+        <v>135</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="29">
+        <v>212</v>
+      </c>
+      <c r="V22" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>231</v>
+      </c>
+      <c r="B23" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="29">
+        <v>66</v>
+      </c>
+      <c r="G23" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="29">
+        <v>91</v>
+      </c>
+      <c r="L23" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="29">
+        <v>161</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="29">
+        <v>223</v>
+      </c>
+      <c r="V23" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>232</v>
+      </c>
+      <c r="B24" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="29">
+        <v>83</v>
+      </c>
+      <c r="G24" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="29">
+        <v>117</v>
+      </c>
+      <c r="L24" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="29">
+        <v>184</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="29">
+        <v>266</v>
+      </c>
+      <c r="V24" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="29">
+        <v>241</v>
+      </c>
+      <c r="B25" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="29">
+        <v>145</v>
+      </c>
+      <c r="G25" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="29">
+        <v>128</v>
+      </c>
+      <c r="L25" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="29">
+        <v>204</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="29">
+        <v>278</v>
+      </c>
+      <c r="V25" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W25" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="29">
+        <v>264</v>
+      </c>
+      <c r="B26" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="29">
+        <v>167</v>
+      </c>
+      <c r="G26" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="29">
+        <v>138</v>
+      </c>
+      <c r="L26" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="29">
+        <v>222</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="29">
+        <v>296</v>
+      </c>
+      <c r="V26" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W26" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="29">
+        <v>274</v>
+      </c>
+      <c r="B27" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="29">
+        <v>213</v>
+      </c>
+      <c r="G27" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="29">
+        <v>150</v>
+      </c>
+      <c r="L27" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="29">
+        <v>305</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="29">
+        <v>372</v>
+      </c>
+      <c r="V27" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="29">
+        <v>276</v>
+      </c>
+      <c r="B28" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="29">
+        <v>252</v>
+      </c>
+      <c r="G28" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="29">
+        <v>157</v>
+      </c>
+      <c r="L28" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="29">
+        <v>343</v>
+      </c>
+      <c r="Q28" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R28" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="29">
+        <v>378</v>
+      </c>
+      <c r="V28" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W28" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="29">
+        <v>277</v>
+      </c>
+      <c r="B29" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="29">
+        <v>295</v>
+      </c>
+      <c r="G29" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="29">
+        <v>196</v>
+      </c>
+      <c r="L29" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="29">
+        <v>373</v>
+      </c>
+      <c r="Q29" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="29">
+        <v>398</v>
+      </c>
+      <c r="V29" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W29" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="29">
+        <v>303</v>
+      </c>
+      <c r="B30" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="29">
+        <v>304</v>
+      </c>
+      <c r="G30" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="29">
+        <v>263</v>
+      </c>
+      <c r="L30" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="29">
+        <v>391</v>
+      </c>
+      <c r="Q30" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="29">
+        <v>413</v>
+      </c>
+      <c r="V30" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W30" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="29">
+        <v>309</v>
+      </c>
+      <c r="B31" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="29">
+        <v>376</v>
+      </c>
+      <c r="G31" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="29">
+        <v>286</v>
+      </c>
+      <c r="L31" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="29">
+        <v>393</v>
+      </c>
+      <c r="Q31" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R31" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="29">
+        <v>466</v>
+      </c>
+      <c r="V31" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W31" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="29">
+        <v>312</v>
+      </c>
+      <c r="B32" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="29">
+        <v>453</v>
+      </c>
+      <c r="G32" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="29">
+        <v>464</v>
+      </c>
+      <c r="L32" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="29">
+        <v>399</v>
+      </c>
+      <c r="Q32" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="29">
+        <v>472</v>
+      </c>
+      <c r="V32" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W32" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="29">
+        <v>360</v>
+      </c>
+      <c r="B33" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="29">
+        <v>456</v>
+      </c>
+      <c r="G33" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="29">
+        <v>471</v>
+      </c>
+      <c r="L33" s="30">
+        <v>6009</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="29">
+        <v>488</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>8311</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="29">
+        <v>500</v>
+      </c>
+      <c r="V33" s="30">
+        <v>9537</v>
+      </c>
+      <c r="W33" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="29">
+        <v>440</v>
+      </c>
+      <c r="B34" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="29">
+        <v>476</v>
+      </c>
+      <c r="G34" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="29">
+        <v>474</v>
+      </c>
+      <c r="B35" s="30">
+        <v>6898</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="29">
+        <v>479</v>
+      </c>
+      <c r="G35" s="30">
+        <v>7092</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X37" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="25">
+        <v>35</v>
+      </c>
+      <c r="B38" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="25">
+        <v>1</v>
+      </c>
+      <c r="G38" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="25">
+        <v>11</v>
+      </c>
+      <c r="L38" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="25">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" s="25">
+        <v>6</v>
+      </c>
+      <c r="V38" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W38" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X38" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="25">
+        <v>52</v>
+      </c>
+      <c r="B39" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="25">
+        <v>26</v>
+      </c>
+      <c r="G39" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="25">
+        <v>50</v>
+      </c>
+      <c r="L39" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="25">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="25">
+        <v>44</v>
+      </c>
+      <c r="V39" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W39" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X39" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="25">
+        <v>94</v>
+      </c>
+      <c r="B40" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="25">
+        <v>51</v>
+      </c>
+      <c r="G40" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="25">
+        <v>109</v>
+      </c>
+      <c r="L40" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="25">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="25">
+        <v>59</v>
+      </c>
+      <c r="V40" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W40" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X40" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="25">
+        <v>112</v>
+      </c>
+      <c r="B41" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="25">
+        <v>73</v>
+      </c>
+      <c r="G41" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="25">
+        <v>131</v>
+      </c>
+      <c r="L41" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P41" s="25">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="25">
+        <v>61</v>
+      </c>
+      <c r="V41" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W41" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X41" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="25">
+        <v>121</v>
+      </c>
+      <c r="B42" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="25">
+        <v>206</v>
+      </c>
+      <c r="G42" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="25">
+        <v>216</v>
+      </c>
+      <c r="L42" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" s="25">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" s="25">
+        <v>103</v>
+      </c>
+      <c r="V42" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X42" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="25">
+        <v>129</v>
+      </c>
+      <c r="B43" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="25">
+        <v>260</v>
+      </c>
+      <c r="G43" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="25">
+        <v>229</v>
+      </c>
+      <c r="L43" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="25">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43" s="25">
+        <v>155</v>
+      </c>
+      <c r="V43" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="25">
+        <v>149</v>
+      </c>
+      <c r="B44" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="25">
+        <v>269</v>
+      </c>
+      <c r="G44" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="25">
+        <v>242</v>
+      </c>
+      <c r="L44" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="25">
+        <v>146</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U44" s="25">
+        <v>194</v>
+      </c>
+      <c r="V44" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X44" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="25">
+        <v>156</v>
+      </c>
+      <c r="B45" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="25">
+        <v>302</v>
+      </c>
+      <c r="G45" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="25">
+        <v>256</v>
+      </c>
+      <c r="L45" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" s="25">
+        <v>179</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="25">
+        <v>246</v>
+      </c>
+      <c r="V45" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W45" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="25">
+        <v>188</v>
+      </c>
+      <c r="B46" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="25">
+        <v>327</v>
+      </c>
+      <c r="G46" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="25">
+        <v>328</v>
+      </c>
+      <c r="L46" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" s="25">
+        <v>272</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R46" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U46" s="25">
+        <v>254</v>
+      </c>
+      <c r="V46" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X46" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="25">
+        <v>201</v>
+      </c>
+      <c r="B47" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="25">
+        <v>344</v>
+      </c>
+      <c r="G47" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="25">
+        <v>363</v>
+      </c>
+      <c r="L47" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" s="25">
+        <v>283</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" s="25">
+        <v>300</v>
+      </c>
+      <c r="V47" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X47" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="25">
+        <v>202</v>
+      </c>
+      <c r="B48" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="25">
+        <v>352</v>
+      </c>
+      <c r="G48" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="25">
+        <v>394</v>
+      </c>
+      <c r="L48" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P48" s="25">
+        <v>297</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U48" s="25">
+        <v>324</v>
+      </c>
+      <c r="V48" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X48" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="25">
+        <v>209</v>
+      </c>
+      <c r="B49" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="25">
+        <v>410</v>
+      </c>
+      <c r="G49" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="25">
+        <v>406</v>
+      </c>
+      <c r="L49" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" s="25">
+        <v>356</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="25">
+        <v>364</v>
+      </c>
+      <c r="V49" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W49" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X49" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="25">
+        <v>211</v>
+      </c>
+      <c r="B50" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="25">
+        <v>487</v>
+      </c>
+      <c r="G50" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="25">
+        <v>417</v>
+      </c>
+      <c r="L50" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" s="25">
+        <v>357</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U50" s="25">
+        <v>407</v>
+      </c>
+      <c r="V50" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W50" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X50" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="25">
+        <v>239</v>
+      </c>
+      <c r="B51" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="25">
+        <v>493</v>
+      </c>
+      <c r="G51" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="25">
+        <v>420</v>
+      </c>
+      <c r="L51" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P51" s="25">
+        <v>358</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U51" s="25">
+        <v>408</v>
+      </c>
+      <c r="V51" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X51" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="25">
+        <v>318</v>
+      </c>
+      <c r="B52" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="25">
+        <v>501</v>
+      </c>
+      <c r="G52" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="25">
+        <v>463</v>
+      </c>
+      <c r="L52" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" s="25">
+        <v>387</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R52" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U52" s="25">
+        <v>461</v>
+      </c>
+      <c r="V52" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X52" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="25">
+        <v>430</v>
+      </c>
+      <c r="B53" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="25">
+        <v>504</v>
+      </c>
+      <c r="G53" s="26">
+        <v>9600</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="25">
+        <v>499</v>
+      </c>
+      <c r="L53" s="26">
+        <v>7213</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" s="25">
+        <v>415</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" s="25">
+        <v>467</v>
+      </c>
+      <c r="V53" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W53" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X53" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="25">
+        <v>465</v>
+      </c>
+      <c r="B54" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="29">
+        <v>57</v>
+      </c>
+      <c r="G54" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="29">
+        <v>13</v>
+      </c>
+      <c r="L54" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" s="25">
+        <v>428</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U54" s="25">
+        <v>470</v>
+      </c>
+      <c r="V54" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W54" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X54" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="25">
+        <v>483</v>
+      </c>
+      <c r="B55" s="26">
+        <v>9544</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="29">
+        <v>96</v>
+      </c>
+      <c r="G55" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="29">
+        <v>24</v>
+      </c>
+      <c r="L55" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" s="25">
+        <v>447</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>9947</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U55" s="25">
+        <v>497</v>
+      </c>
+      <c r="V55" s="26">
+        <v>8357</v>
+      </c>
+      <c r="W55" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="X55" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="29">
+        <v>18</v>
+      </c>
+      <c r="B56" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="29">
+        <v>105</v>
+      </c>
+      <c r="G56" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="29">
+        <v>42</v>
+      </c>
+      <c r="L56" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" s="29">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R56" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U56" s="29">
+        <v>85</v>
+      </c>
+      <c r="V56" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W56" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X56" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="29">
+        <v>25</v>
+      </c>
+      <c r="B57" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="29">
+        <v>139</v>
+      </c>
+      <c r="G57" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="29">
+        <v>78</v>
+      </c>
+      <c r="L57" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" s="29">
+        <v>47</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R57" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="29">
+        <v>98</v>
+      </c>
+      <c r="V57" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W57" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X57" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="29">
+        <v>38</v>
+      </c>
+      <c r="B58" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="29">
+        <v>224</v>
+      </c>
+      <c r="G58" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="29">
+        <v>81</v>
+      </c>
+      <c r="L58" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M58" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="29">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R58" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="29">
+        <v>100</v>
+      </c>
+      <c r="V58" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W58" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X58" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29">
+        <v>53</v>
+      </c>
+      <c r="B59" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="29">
+        <v>247</v>
+      </c>
+      <c r="G59" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="29">
+        <v>113</v>
+      </c>
+      <c r="L59" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M59" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P59" s="29">
+        <v>93</v>
+      </c>
+      <c r="Q59" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R59" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S59" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U59" s="29">
+        <v>143</v>
+      </c>
+      <c r="V59" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W59" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X59" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="29">
+        <v>76</v>
+      </c>
+      <c r="B60" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="29">
+        <v>268</v>
+      </c>
+      <c r="G60" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="29">
+        <v>120</v>
+      </c>
+      <c r="L60" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M60" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P60" s="29">
+        <v>137</v>
+      </c>
+      <c r="Q60" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R60" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U60" s="29">
+        <v>162</v>
+      </c>
+      <c r="V60" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W60" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X60" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29">
+        <v>115</v>
+      </c>
+      <c r="B61" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="29">
+        <v>320</v>
+      </c>
+      <c r="G61" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="29">
+        <v>173</v>
+      </c>
+      <c r="L61" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" s="29">
+        <v>175</v>
+      </c>
+      <c r="Q61" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R61" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U61" s="29">
+        <v>203</v>
+      </c>
+      <c r="V61" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W61" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X61" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="29">
+        <v>190</v>
+      </c>
+      <c r="B62" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="29">
+        <v>329</v>
+      </c>
+      <c r="G62" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="29">
+        <v>177</v>
+      </c>
+      <c r="L62" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P62" s="29">
+        <v>192</v>
+      </c>
+      <c r="Q62" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R62" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S62" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U62" s="29">
+        <v>210</v>
+      </c>
+      <c r="V62" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W62" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X62" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29">
+        <v>205</v>
+      </c>
+      <c r="B63" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="29">
+        <v>330</v>
+      </c>
+      <c r="G63" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="29">
+        <v>189</v>
+      </c>
+      <c r="L63" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M63" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P63" s="29">
+        <v>271</v>
+      </c>
+      <c r="Q63" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R63" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U63" s="29">
+        <v>215</v>
+      </c>
+      <c r="V63" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W63" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X63" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="29">
+        <v>292</v>
+      </c>
+      <c r="B64" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="29">
+        <v>362</v>
+      </c>
+      <c r="G64" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="29">
+        <v>219</v>
+      </c>
+      <c r="L64" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M64" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P64" s="29">
+        <v>310</v>
+      </c>
+      <c r="Q64" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R64" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S64" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U64" s="29">
+        <v>288</v>
+      </c>
+      <c r="V64" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W64" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X64" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="29">
+        <v>308</v>
+      </c>
+      <c r="B65" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="29">
+        <v>400</v>
+      </c>
+      <c r="G65" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="29">
+        <v>251</v>
+      </c>
+      <c r="L65" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M65" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P65" s="29">
+        <v>323</v>
+      </c>
+      <c r="Q65" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R65" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U65" s="29">
+        <v>294</v>
+      </c>
+      <c r="V65" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W65" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X65" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="29">
+        <v>314</v>
+      </c>
+      <c r="B66" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="29">
+        <v>421</v>
+      </c>
+      <c r="G66" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="29">
+        <v>291</v>
+      </c>
+      <c r="L66" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M66" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P66" s="29">
+        <v>338</v>
+      </c>
+      <c r="Q66" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R66" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U66" s="29">
+        <v>339</v>
+      </c>
+      <c r="V66" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W66" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X66" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="29">
+        <v>353</v>
+      </c>
+      <c r="B67" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="29">
+        <v>441</v>
+      </c>
+      <c r="G67" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="29">
+        <v>332</v>
+      </c>
+      <c r="L67" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M67" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" s="29">
+        <v>388</v>
+      </c>
+      <c r="Q67" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R67" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S67" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U67" s="29">
+        <v>365</v>
+      </c>
+      <c r="V67" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W67" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X67" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="29">
+        <v>371</v>
+      </c>
+      <c r="B68" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="29">
+        <v>482</v>
+      </c>
+      <c r="G68" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="29">
+        <v>429</v>
+      </c>
+      <c r="L68" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M68" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" s="29">
+        <v>424</v>
+      </c>
+      <c r="Q68" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R68" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S68" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" s="29">
+        <v>381</v>
+      </c>
+      <c r="V68" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W68" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X68" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="29">
+        <v>442</v>
+      </c>
+      <c r="B69" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="29">
+        <v>486</v>
+      </c>
+      <c r="G69" s="30">
+        <v>8240</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="29">
+        <v>436</v>
+      </c>
+      <c r="L69" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M69" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P69" s="29">
+        <v>427</v>
+      </c>
+      <c r="Q69" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R69" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S69" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U69" s="29">
+        <v>389</v>
+      </c>
+      <c r="V69" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W69" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X69" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="29">
+        <v>445</v>
+      </c>
+      <c r="B70" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="29">
+        <v>438</v>
+      </c>
+      <c r="L70" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P70" s="29">
+        <v>459</v>
+      </c>
+      <c r="Q70" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R70" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S70" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" s="29">
+        <v>396</v>
+      </c>
+      <c r="V70" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W70" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X70" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="29">
+        <v>446</v>
+      </c>
+      <c r="B71" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="29">
+        <v>462</v>
+      </c>
+      <c r="L71" s="30">
+        <v>6074</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P71" s="29">
+        <v>503</v>
+      </c>
+      <c r="Q71" s="30">
+        <v>7298</v>
+      </c>
+      <c r="R71" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S71" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U71" s="29">
+        <v>414</v>
+      </c>
+      <c r="V71" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W71" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X71" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="29">
+        <v>454</v>
+      </c>
+      <c r="B72" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U72" s="29">
+        <v>419</v>
+      </c>
+      <c r="V72" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W72" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X72" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="29">
+        <v>490</v>
+      </c>
+      <c r="B73" s="30">
+        <v>9549</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U73" s="29">
+        <v>475</v>
+      </c>
+      <c r="V73" s="30">
+        <v>6958</v>
+      </c>
+      <c r="W73" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X73" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P75" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="R75" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S75" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U75" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V75" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="W75" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X75" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="25">
+        <v>110</v>
+      </c>
+      <c r="B76" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="25">
+        <v>34</v>
+      </c>
+      <c r="G76" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="25">
+        <v>22</v>
+      </c>
+      <c r="L76" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P76" s="25">
+        <v>7</v>
+      </c>
+      <c r="Q76" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R76" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S76" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U76" s="25">
+        <v>134</v>
+      </c>
+      <c r="V76" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W76" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X76" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="25">
+        <v>126</v>
+      </c>
+      <c r="B77" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="25">
+        <v>46</v>
+      </c>
+      <c r="G77" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="25">
+        <v>60</v>
+      </c>
+      <c r="L77" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P77" s="25">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R77" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S77" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U77" s="25">
+        <v>151</v>
+      </c>
+      <c r="V77" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W77" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X77" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="25">
+        <v>142</v>
+      </c>
+      <c r="B78" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="25">
+        <v>49</v>
+      </c>
+      <c r="G78" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="25">
+        <v>68</v>
+      </c>
+      <c r="L78" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P78" s="25">
+        <v>36</v>
+      </c>
+      <c r="Q78" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R78" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S78" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U78" s="25">
+        <v>152</v>
+      </c>
+      <c r="V78" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W78" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X78" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="25">
+        <v>147</v>
+      </c>
+      <c r="B79" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="25">
+        <v>67</v>
+      </c>
+      <c r="G79" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="25">
+        <v>104</v>
+      </c>
+      <c r="L79" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P79" s="25">
+        <v>58</v>
+      </c>
+      <c r="Q79" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R79" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S79" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U79" s="25">
+        <v>153</v>
+      </c>
+      <c r="V79" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W79" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X79" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="25">
+        <v>160</v>
+      </c>
+      <c r="B80" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="25">
+        <v>80</v>
+      </c>
+      <c r="G80" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" s="25">
+        <v>114</v>
+      </c>
+      <c r="L80" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P80" s="25">
+        <v>75</v>
+      </c>
+      <c r="Q80" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R80" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S80" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U80" s="25">
+        <v>214</v>
+      </c>
+      <c r="V80" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W80" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X80" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="25">
+        <v>174</v>
+      </c>
+      <c r="B81" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="25">
+        <v>90</v>
+      </c>
+      <c r="G81" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="25">
+        <v>116</v>
+      </c>
+      <c r="L81" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P81" s="25">
+        <v>165</v>
+      </c>
+      <c r="Q81" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R81" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S81" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U81" s="25">
+        <v>230</v>
+      </c>
+      <c r="V81" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W81" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X81" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="25">
+        <v>180</v>
+      </c>
+      <c r="B82" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="25">
+        <v>95</v>
+      </c>
+      <c r="G82" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="25">
+        <v>132</v>
+      </c>
+      <c r="L82" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P82" s="25">
+        <v>195</v>
+      </c>
+      <c r="Q82" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R82" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S82" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U82" s="25">
+        <v>235</v>
+      </c>
+      <c r="V82" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W82" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X82" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="25">
+        <v>199</v>
+      </c>
+      <c r="B83" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="25">
+        <v>226</v>
+      </c>
+      <c r="G83" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83" s="25">
+        <v>198</v>
+      </c>
+      <c r="L83" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P83" s="25">
+        <v>221</v>
+      </c>
+      <c r="Q83" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R83" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S83" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U83" s="25">
+        <v>267</v>
+      </c>
+      <c r="V83" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W83" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X83" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="25">
+        <v>217</v>
+      </c>
+      <c r="B84" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="25">
+        <v>273</v>
+      </c>
+      <c r="G84" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="25">
+        <v>238</v>
+      </c>
+      <c r="L84" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P84" s="25">
+        <v>234</v>
+      </c>
+      <c r="Q84" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R84" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S84" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U84" s="25">
+        <v>282</v>
+      </c>
+      <c r="V84" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W84" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X84" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="25">
+        <v>228</v>
+      </c>
+      <c r="B85" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="25">
+        <v>289</v>
+      </c>
+      <c r="G85" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85" s="25">
+        <v>285</v>
+      </c>
+      <c r="L85" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M85" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P85" s="25">
+        <v>237</v>
+      </c>
+      <c r="Q85" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R85" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S85" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U85" s="25">
+        <v>326</v>
+      </c>
+      <c r="V85" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W85" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X85" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="25">
+        <v>240</v>
+      </c>
+      <c r="B86" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="25">
+        <v>311</v>
+      </c>
+      <c r="G86" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86" s="25">
+        <v>301</v>
+      </c>
+      <c r="L86" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P86" s="25">
+        <v>342</v>
+      </c>
+      <c r="Q86" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R86" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S86" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U86" s="25">
+        <v>345</v>
+      </c>
+      <c r="V86" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W86" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X86" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="25">
+        <v>315</v>
+      </c>
+      <c r="B87" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="25">
+        <v>321</v>
+      </c>
+      <c r="G87" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="25">
+        <v>313</v>
+      </c>
+      <c r="L87" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P87" s="25">
+        <v>348</v>
+      </c>
+      <c r="Q87" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R87" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S87" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U87" s="25">
+        <v>347</v>
+      </c>
+      <c r="V87" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W87" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X87" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="25">
+        <v>331</v>
+      </c>
+      <c r="B88" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="25">
+        <v>401</v>
+      </c>
+      <c r="G88" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="25">
+        <v>340</v>
+      </c>
+      <c r="L88" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P88" s="25">
+        <v>382</v>
+      </c>
+      <c r="Q88" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R88" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S88" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U88" s="25">
+        <v>366</v>
+      </c>
+      <c r="V88" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W88" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X88" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="25">
+        <v>336</v>
+      </c>
+      <c r="B89" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="25">
+        <v>404</v>
+      </c>
+      <c r="G89" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="25">
+        <v>368</v>
+      </c>
+      <c r="L89" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P89" s="25">
+        <v>395</v>
+      </c>
+      <c r="Q89" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R89" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S89" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U89" s="25">
+        <v>367</v>
+      </c>
+      <c r="V89" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W89" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X89" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="25">
+        <v>359</v>
+      </c>
+      <c r="B90" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="25">
+        <v>431</v>
+      </c>
+      <c r="G90" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90" s="25">
+        <v>386</v>
+      </c>
+      <c r="L90" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M90" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P90" s="25">
+        <v>439</v>
+      </c>
+      <c r="Q90" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R90" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S90" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U90" s="25">
+        <v>390</v>
+      </c>
+      <c r="V90" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W90" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X90" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="25">
+        <v>375</v>
+      </c>
+      <c r="B91" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="25">
+        <v>432</v>
+      </c>
+      <c r="G91" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="25">
+        <v>437</v>
+      </c>
+      <c r="L91" s="26">
+        <v>6209</v>
+      </c>
+      <c r="M91" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P91" s="25">
+        <v>502</v>
+      </c>
+      <c r="Q91" s="26">
+        <v>6970</v>
+      </c>
+      <c r="R91" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S91" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U91" s="25">
+        <v>423</v>
+      </c>
+      <c r="V91" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W91" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X91" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="25">
+        <v>397</v>
+      </c>
+      <c r="B92" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="25">
+        <v>451</v>
+      </c>
+      <c r="G92" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="29">
+        <v>17</v>
+      </c>
+      <c r="L92" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M92" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P92" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q92" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R92" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S92" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U92" s="25">
+        <v>469</v>
+      </c>
+      <c r="V92" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W92" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X92" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="25">
+        <v>477</v>
+      </c>
+      <c r="B93" s="26">
+        <v>6959</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="25">
+        <v>452</v>
+      </c>
+      <c r="G93" s="26">
+        <v>6177</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="29">
+        <v>37</v>
+      </c>
+      <c r="L93" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M93" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P93" s="29">
+        <v>84</v>
+      </c>
+      <c r="Q93" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R93" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U93" s="25">
+        <v>495</v>
+      </c>
+      <c r="V93" s="26">
+        <v>7382</v>
+      </c>
+      <c r="W93" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X93" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="29">
+        <v>8</v>
+      </c>
+      <c r="B94" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="29">
+        <v>16</v>
+      </c>
+      <c r="G94" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94" s="29">
+        <v>82</v>
+      </c>
+      <c r="L94" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M94" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P94" s="29">
+        <v>107</v>
+      </c>
+      <c r="Q94" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R94" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U94" s="29">
+        <v>2</v>
+      </c>
+      <c r="V94" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W94" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X94" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="29">
+        <v>125</v>
+      </c>
+      <c r="B95" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="29">
+        <v>23</v>
+      </c>
+      <c r="G95" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" s="29">
+        <v>106</v>
+      </c>
+      <c r="L95" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M95" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P95" s="29">
+        <v>168</v>
+      </c>
+      <c r="Q95" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R95" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S95" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U95" s="29">
+        <v>28</v>
+      </c>
+      <c r="V95" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W95" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X95" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="29">
+        <v>154</v>
+      </c>
+      <c r="B96" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="29">
+        <v>33</v>
+      </c>
+      <c r="G96" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="29">
+        <v>244</v>
+      </c>
+      <c r="L96" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P96" s="29">
+        <v>258</v>
+      </c>
+      <c r="Q96" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R96" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S96" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U96" s="29">
+        <v>64</v>
+      </c>
+      <c r="V96" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W96" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X96" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="29">
+        <v>169</v>
+      </c>
+      <c r="B97" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="29">
+        <v>88</v>
+      </c>
+      <c r="G97" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="29">
+        <v>255</v>
+      </c>
+      <c r="L97" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M97" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P97" s="29">
+        <v>279</v>
+      </c>
+      <c r="Q97" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R97" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S97" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U97" s="29">
+        <v>92</v>
+      </c>
+      <c r="V97" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W97" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X97" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="29">
+        <v>172</v>
+      </c>
+      <c r="B98" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="29">
+        <v>111</v>
+      </c>
+      <c r="G98" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="29">
+        <v>259</v>
+      </c>
+      <c r="L98" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M98" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P98" s="29">
+        <v>281</v>
+      </c>
+      <c r="Q98" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R98" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S98" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U98" s="29">
+        <v>182</v>
+      </c>
+      <c r="V98" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W98" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X98" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="29">
+        <v>181</v>
+      </c>
+      <c r="B99" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="29">
+        <v>136</v>
+      </c>
+      <c r="G99" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="29">
+        <v>275</v>
+      </c>
+      <c r="L99" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M99" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P99" s="29">
+        <v>306</v>
+      </c>
+      <c r="Q99" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R99" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S99" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U99" s="29">
+        <v>183</v>
+      </c>
+      <c r="V99" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W99" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X99" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="29">
+        <v>193</v>
+      </c>
+      <c r="B100" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="29">
+        <v>207</v>
+      </c>
+      <c r="G100" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="29">
+        <v>350</v>
+      </c>
+      <c r="L100" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M100" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P100" s="29">
+        <v>402</v>
+      </c>
+      <c r="Q100" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R100" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U100" s="29">
+        <v>187</v>
+      </c>
+      <c r="V100" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W100" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X100" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="29">
+        <v>208</v>
+      </c>
+      <c r="B101" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="29">
+        <v>227</v>
+      </c>
+      <c r="G101" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="29">
+        <v>351</v>
+      </c>
+      <c r="L101" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M101" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P101" s="29">
+        <v>426</v>
+      </c>
+      <c r="Q101" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R101" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U101" s="29">
+        <v>197</v>
+      </c>
+      <c r="V101" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W101" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X101" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="29">
+        <v>250</v>
+      </c>
+      <c r="B102" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="29">
+        <v>265</v>
+      </c>
+      <c r="G102" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="29">
+        <v>355</v>
+      </c>
+      <c r="L102" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M102" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P102" s="29">
+        <v>434</v>
+      </c>
+      <c r="Q102" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R102" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U102" s="29">
+        <v>218</v>
+      </c>
+      <c r="V102" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W102" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X102" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="29">
+        <v>270</v>
+      </c>
+      <c r="B103" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="29">
+        <v>317</v>
+      </c>
+      <c r="G103" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="29">
+        <v>403</v>
+      </c>
+      <c r="L103" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M103" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P103" s="29">
+        <v>448</v>
+      </c>
+      <c r="Q103" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R103" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S103" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U103" s="29">
+        <v>225</v>
+      </c>
+      <c r="V103" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W103" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X103" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="29">
+        <v>298</v>
+      </c>
+      <c r="B104" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="29">
+        <v>341</v>
+      </c>
+      <c r="G104" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="29">
+        <v>416</v>
+      </c>
+      <c r="L104" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M104" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P104" s="29">
+        <v>455</v>
+      </c>
+      <c r="Q104" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R104" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S104" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U104" s="29">
+        <v>280</v>
+      </c>
+      <c r="V104" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W104" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X104" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="29">
+        <v>335</v>
+      </c>
+      <c r="B105" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="29">
+        <v>349</v>
+      </c>
+      <c r="G105" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="29">
+        <v>418</v>
+      </c>
+      <c r="L105" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M105" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P105" s="29">
+        <v>460</v>
+      </c>
+      <c r="Q105" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R105" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S105" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U105" s="29">
+        <v>322</v>
+      </c>
+      <c r="V105" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W105" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X105" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="29">
+        <v>337</v>
+      </c>
+      <c r="B106" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="29">
+        <v>361</v>
+      </c>
+      <c r="G106" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" s="29">
+        <v>435</v>
+      </c>
+      <c r="L106" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M106" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P106" s="29">
+        <v>492</v>
+      </c>
+      <c r="Q106" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R106" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S106" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U106" s="29">
+        <v>354</v>
+      </c>
+      <c r="V106" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W106" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X106" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="29">
+        <v>369</v>
+      </c>
+      <c r="B107" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="29">
+        <v>444</v>
+      </c>
+      <c r="G107" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="29">
+        <v>457</v>
+      </c>
+      <c r="L107" s="30">
+        <v>6244</v>
+      </c>
+      <c r="M107" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P107" s="29">
+        <v>498</v>
+      </c>
+      <c r="Q107" s="30">
+        <v>9470</v>
+      </c>
+      <c r="R107" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S107" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U107" s="29">
+        <v>405</v>
+      </c>
+      <c r="V107" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W107" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X107" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="29">
+        <v>379</v>
+      </c>
+      <c r="B108" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="29">
+        <v>481</v>
+      </c>
+      <c r="G108" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U108" s="29">
+        <v>409</v>
+      </c>
+      <c r="V108" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W108" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X108" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="29">
+        <v>383</v>
+      </c>
+      <c r="B109" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C109" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="29">
+        <v>485</v>
+      </c>
+      <c r="G109" s="30">
+        <v>6184</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U109" s="29">
+        <v>494</v>
+      </c>
+      <c r="V109" s="30">
+        <v>9057</v>
+      </c>
+      <c r="W109" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="X109" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="29">
+        <v>491</v>
+      </c>
+      <c r="B110" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="29">
+        <v>496</v>
+      </c>
+      <c r="B111" s="30">
+        <v>8376</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="25"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="27"/>
+      <c r="D268" s="28"/>
+    </row>
+    <row r="269" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="25"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="27"/>
+      <c r="D269" s="28"/>
+    </row>
+    <row r="270" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="25"/>
+      <c r="B270" s="26"/>
+      <c r="C270" s="27"/>
+      <c r="D270" s="28"/>
+    </row>
+    <row r="271" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="25"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="27"/>
+      <c r="D271" s="28"/>
+    </row>
+    <row r="272" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="25"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="27"/>
+      <c r="D272" s="28"/>
+    </row>
+    <row r="273" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="25"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="27"/>
+      <c r="D273" s="28"/>
+    </row>
+    <row r="274" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="25"/>
+      <c r="B274" s="26"/>
+      <c r="C274" s="27"/>
+      <c r="D274" s="28"/>
+    </row>
+    <row r="275" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="25"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="27"/>
+      <c r="D275" s="28"/>
+    </row>
+    <row r="276" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="25"/>
+      <c r="B276" s="26"/>
+      <c r="C276" s="27"/>
+      <c r="D276" s="28"/>
+    </row>
+    <row r="277" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="25"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="27"/>
+      <c r="D277" s="28"/>
+    </row>
+    <row r="278" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="25"/>
+      <c r="B278" s="26"/>
+      <c r="C278" s="27"/>
+      <c r="D278" s="28"/>
+    </row>
+    <row r="279" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="25"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="27"/>
+      <c r="D279" s="28"/>
+    </row>
+    <row r="280" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="25"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="27"/>
+      <c r="D280" s="28"/>
+    </row>
+    <row r="281" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="25"/>
+      <c r="B281" s="26"/>
+      <c r="C281" s="27"/>
+      <c r="D281" s="28"/>
+    </row>
+    <row r="282" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="25"/>
+      <c r="B282" s="26"/>
+      <c r="C282" s="27"/>
+      <c r="D282" s="28"/>
+    </row>
+    <row r="283" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="25"/>
+      <c r="B283" s="26"/>
+      <c r="C283" s="27"/>
+      <c r="D283" s="28"/>
+    </row>
+    <row r="284" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="25"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="27"/>
+      <c r="D284" s="28"/>
+    </row>
+    <row r="285" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="25"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="27"/>
+      <c r="D285" s="28"/>
+    </row>
+    <row r="286" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="29"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="31"/>
+      <c r="D286" s="32"/>
+    </row>
+    <row r="287" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="29"/>
+      <c r="B287" s="30"/>
+      <c r="C287" s="31"/>
+      <c r="D287" s="32"/>
+    </row>
+    <row r="288" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="29"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="31"/>
+      <c r="D288" s="32"/>
+    </row>
+    <row r="289" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="29"/>
+      <c r="B289" s="30"/>
+      <c r="C289" s="31"/>
+      <c r="D289" s="32"/>
+    </row>
+    <row r="290" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="29"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="31"/>
+      <c r="D290" s="32"/>
+    </row>
+    <row r="291" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="29"/>
+      <c r="B291" s="30"/>
+      <c r="C291" s="31"/>
+      <c r="D291" s="32"/>
+    </row>
+    <row r="292" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="29"/>
+      <c r="B292" s="30"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="32"/>
+    </row>
+    <row r="293" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="29"/>
+      <c r="B293" s="30"/>
+      <c r="C293" s="31"/>
+      <c r="D293" s="32"/>
+    </row>
+    <row r="294" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="29"/>
+      <c r="B294" s="30"/>
+      <c r="C294" s="31"/>
+      <c r="D294" s="32"/>
+    </row>
+    <row r="295" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="29"/>
+      <c r="B295" s="30"/>
+      <c r="C295" s="31"/>
+      <c r="D295" s="32"/>
+    </row>
+    <row r="296" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="29"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="31"/>
+      <c r="D296" s="32"/>
+    </row>
+    <row r="297" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="29"/>
+      <c r="B297" s="30"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="32"/>
+    </row>
+    <row r="298" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="29"/>
+      <c r="B298" s="30"/>
+      <c r="C298" s="31"/>
+      <c r="D298" s="32"/>
+    </row>
+    <row r="299" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="29"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="31"/>
+      <c r="D299" s="32"/>
+    </row>
+    <row r="300" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="29"/>
+      <c r="B300" s="30"/>
+      <c r="C300" s="31"/>
+      <c r="D300" s="32"/>
+    </row>
+    <row r="301" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="29"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="31"/>
+      <c r="D301" s="32"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C505">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="35" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
 </file>
--- a/data/pots_C2M52.xlsx
+++ b/data/pots_C2M52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis/Documents/Encadrements/Stages/2021 - M2 Endopolyploidy/R_Git_PLASTENDO/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1823EFA-A5F3-3646-B3E2-B7041D3B74F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C7A88-7E84-B445-983E-DE94595994A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13000" yWindow="1840" windowWidth="27600" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="TCD" sheetId="2" r:id="rId3"/>
     <sheet name="pots_C2M52 (semis)" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'pots_C2M52 (semis)'!$A$1:$X$112</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId5"/>
@@ -161,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -5397,7 +5400,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="20" customWidth="1"/>
@@ -5407,7 +5410,7 @@
     <col min="7" max="16384" width="8.33203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -5594,7 +5597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -5645,7 +5648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="21">
         <v>22</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="21">
         <v>27</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="21">
         <v>33</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="21">
         <v>35</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="21">
         <v>37</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="21">
         <v>38</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -6087,7 +6090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="21">
         <v>41</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="21">
         <v>62</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="21">
         <v>63</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" s="21">
         <v>64</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="20" customHeight="1">
       <c r="A66" s="21">
         <v>65</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="20" customHeight="1">
       <c r="A67" s="21">
         <v>66</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="20" customHeight="1">
       <c r="A68" s="21">
         <v>67</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="20" customHeight="1">
       <c r="A69" s="21">
         <v>68</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="20" customHeight="1">
       <c r="A70" s="21">
         <v>69</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="20" customHeight="1">
       <c r="A71" s="21">
         <v>70</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="20" customHeight="1">
       <c r="A72" s="21">
         <v>71</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="20" customHeight="1">
       <c r="A73" s="21">
         <v>72</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="20" customHeight="1">
       <c r="A74" s="21">
         <v>73</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="20" customHeight="1">
       <c r="A75" s="21">
         <v>74</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="20" customHeight="1">
       <c r="A76" s="21">
         <v>75</v>
       </c>
@@ -6699,7 +6702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="20" customHeight="1">
       <c r="A77" s="21">
         <v>76</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="20" customHeight="1">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="20" customHeight="1">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="20" customHeight="1">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="20" customHeight="1">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="20" customHeight="1">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="20" customHeight="1">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="20" customHeight="1">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="20" customHeight="1">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="20" customHeight="1">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="20" customHeight="1">
       <c r="A87" s="21">
         <v>86</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="20" customHeight="1">
       <c r="A88" s="21">
         <v>87</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="20" customHeight="1">
       <c r="A89" s="21">
         <v>88</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="20" customHeight="1">
       <c r="A90" s="21">
         <v>89</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="20" customHeight="1">
       <c r="A91" s="21">
         <v>90</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="20" customHeight="1">
       <c r="A92" s="21">
         <v>91</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="20" customHeight="1">
       <c r="A93" s="21">
         <v>92</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="20" customHeight="1">
       <c r="A94" s="21">
         <v>93</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="20" customHeight="1">
       <c r="A95" s="21">
         <v>94</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="20" customHeight="1">
       <c r="A96" s="21">
         <v>95</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="20" customHeight="1">
       <c r="A97" s="21">
         <v>96</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="20" customHeight="1">
       <c r="A98" s="21">
         <v>97</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="20" customHeight="1">
       <c r="A99" s="21">
         <v>98</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="20" customHeight="1">
       <c r="A100" s="21">
         <v>99</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" ht="20" customHeight="1">
       <c r="A101" s="21">
         <v>100</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="20" customHeight="1">
       <c r="A102" s="21">
         <v>101</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="20" customHeight="1">
       <c r="A103" s="21">
         <v>102</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="20" customHeight="1">
       <c r="A104" s="21">
         <v>103</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="20" customHeight="1">
       <c r="A105" s="21">
         <v>104</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="20" customHeight="1">
       <c r="A106" s="21">
         <v>105</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="20" customHeight="1">
       <c r="A107" s="21">
         <v>106</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="20" customHeight="1">
       <c r="A108" s="21">
         <v>107</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="20" customHeight="1">
       <c r="A109" s="21">
         <v>108</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="20" customHeight="1">
       <c r="A110" s="21">
         <v>109</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="20" customHeight="1">
       <c r="A111" s="21">
         <v>110</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="20" customHeight="1">
       <c r="A112" s="21">
         <v>111</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="20" customHeight="1">
       <c r="A113" s="21">
         <v>112</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="20" customHeight="1">
       <c r="A114" s="21">
         <v>113</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="20" customHeight="1">
       <c r="A115" s="21">
         <v>114</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="20" customHeight="1">
       <c r="A116" s="21">
         <v>115</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="20" customHeight="1">
       <c r="A117" s="21">
         <v>116</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="20" customHeight="1">
       <c r="A118" s="21">
         <v>117</v>
       </c>
@@ -7413,7 +7416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="20" customHeight="1">
       <c r="A119" s="21">
         <v>118</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="20" customHeight="1">
       <c r="A120" s="21">
         <v>119</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="20" customHeight="1">
       <c r="A121" s="21">
         <v>120</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="20" customHeight="1">
       <c r="A122" s="21">
         <v>121</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="20" customHeight="1">
       <c r="A123" s="21">
         <v>122</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="20" customHeight="1">
       <c r="A124" s="21">
         <v>123</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="20" customHeight="1">
       <c r="A125" s="21">
         <v>124</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="20" customHeight="1">
       <c r="A126" s="21">
         <v>125</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="20" customHeight="1">
       <c r="A127" s="21">
         <v>126</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="20" customHeight="1">
       <c r="A128" s="21">
         <v>127</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="20" customHeight="1">
       <c r="A129" s="21">
         <v>128</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="20" customHeight="1">
       <c r="A130" s="21">
         <v>129</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="20" customHeight="1">
       <c r="A131" s="21">
         <v>130</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="20" customHeight="1">
       <c r="A132" s="21">
         <v>131</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="20" customHeight="1">
       <c r="A133" s="21">
         <v>132</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="20" customHeight="1">
       <c r="A134" s="21">
         <v>133</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="20" customHeight="1">
       <c r="A135" s="21">
         <v>134</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="20" customHeight="1">
       <c r="A136" s="21">
         <v>135</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="20" customHeight="1">
       <c r="A137" s="21">
         <v>136</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="20" customHeight="1">
       <c r="A138" s="21">
         <v>137</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="20" customHeight="1">
       <c r="A139" s="21">
         <v>138</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="20" customHeight="1">
       <c r="A140" s="21">
         <v>139</v>
       </c>
@@ -7787,7 +7790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="20" customHeight="1">
       <c r="A141" s="21">
         <v>140</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="20" customHeight="1">
       <c r="A142" s="21">
         <v>141</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="20" customHeight="1">
       <c r="A143" s="21">
         <v>142</v>
       </c>
@@ -7838,7 +7841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="20" customHeight="1">
       <c r="A144" s="21">
         <v>143</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="20" customHeight="1">
       <c r="A145" s="21">
         <v>144</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="20" customHeight="1">
       <c r="A146" s="21">
         <v>145</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="20" customHeight="1">
       <c r="A147" s="21">
         <v>146</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="20" customHeight="1">
       <c r="A148" s="21">
         <v>147</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="20" customHeight="1">
       <c r="A149" s="21">
         <v>148</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="20" customHeight="1">
       <c r="A150" s="21">
         <v>149</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="20" customHeight="1">
       <c r="A151" s="21">
         <v>150</v>
       </c>
@@ -7974,7 +7977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="20" customHeight="1">
       <c r="A152" s="21">
         <v>151</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="20" customHeight="1">
       <c r="A153" s="21">
         <v>152</v>
       </c>
@@ -8008,7 +8011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="20" customHeight="1">
       <c r="A154" s="21">
         <v>153</v>
       </c>
@@ -8025,7 +8028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="20" customHeight="1">
       <c r="A155" s="21">
         <v>154</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="20" customHeight="1">
       <c r="A156" s="21">
         <v>155</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="20" customHeight="1">
       <c r="A157" s="21">
         <v>156</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="20" customHeight="1">
       <c r="A158" s="21">
         <v>157</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="20" customHeight="1">
       <c r="A159" s="21">
         <v>158</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="20" customHeight="1">
       <c r="A160" s="21">
         <v>159</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="20" customHeight="1">
       <c r="A161" s="21">
         <v>160</v>
       </c>
@@ -8144,7 +8147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="20" customHeight="1">
       <c r="A162" s="21">
         <v>161</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="20" customHeight="1">
       <c r="A163" s="21">
         <v>162</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="20" customHeight="1">
       <c r="A164" s="21">
         <v>163</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="20" customHeight="1">
       <c r="A165" s="21">
         <v>164</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="20" customHeight="1">
       <c r="A166" s="21">
         <v>165</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="20" customHeight="1">
       <c r="A167" s="21">
         <v>166</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="20" customHeight="1">
       <c r="A168" s="21">
         <v>167</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="20" customHeight="1">
       <c r="A169" s="21">
         <v>168</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="20" customHeight="1">
       <c r="A170" s="21">
         <v>169</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="20" customHeight="1">
       <c r="A171" s="21">
         <v>170</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="20" customHeight="1">
       <c r="A172" s="21">
         <v>171</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="20" customHeight="1">
       <c r="A173" s="21">
         <v>172</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="20" customHeight="1">
       <c r="A174" s="21">
         <v>173</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="20" customHeight="1">
       <c r="A175" s="21">
         <v>174</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="20" customHeight="1">
       <c r="A176" s="21">
         <v>175</v>
       </c>
@@ -8399,7 +8402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" ht="20" customHeight="1">
       <c r="A177" s="21">
         <v>176</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="20" customHeight="1">
       <c r="A178" s="21">
         <v>177</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="20" customHeight="1">
       <c r="A179" s="21">
         <v>178</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="20" customHeight="1">
       <c r="A180" s="21">
         <v>179</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="20" customHeight="1">
       <c r="A181" s="21">
         <v>180</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="20" customHeight="1">
       <c r="A182" s="21">
         <v>181</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="20" customHeight="1">
       <c r="A183" s="21">
         <v>182</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="20" customHeight="1">
       <c r="A184" s="21">
         <v>183</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="20" customHeight="1">
       <c r="A185" s="21">
         <v>184</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" ht="20" customHeight="1">
       <c r="A186" s="21">
         <v>185</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" ht="20" customHeight="1">
       <c r="A187" s="21">
         <v>186</v>
       </c>
@@ -8586,7 +8589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" ht="20" customHeight="1">
       <c r="A188" s="21">
         <v>187</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" ht="20" customHeight="1">
       <c r="A189" s="21">
         <v>188</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="20" customHeight="1">
       <c r="A190" s="21">
         <v>189</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="20" customHeight="1">
       <c r="A191" s="21">
         <v>190</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="20" customHeight="1">
       <c r="A192" s="21">
         <v>191</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="20" customHeight="1">
       <c r="A193" s="21">
         <v>192</v>
       </c>
@@ -8688,7 +8691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="20" customHeight="1">
       <c r="A194" s="21">
         <v>193</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="20" customHeight="1">
       <c r="A195" s="21">
         <v>194</v>
       </c>
@@ -8722,7 +8725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="20" customHeight="1">
       <c r="A196" s="21">
         <v>195</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="20" customHeight="1">
       <c r="A197" s="21">
         <v>196</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="20" customHeight="1">
       <c r="A198" s="21">
         <v>197</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="20" customHeight="1">
       <c r="A199" s="21">
         <v>198</v>
       </c>
@@ -8790,7 +8793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="20" customHeight="1">
       <c r="A200" s="21">
         <v>199</v>
       </c>
@@ -8807,7 +8810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="20" customHeight="1">
       <c r="A201" s="21">
         <v>200</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="20" customHeight="1">
       <c r="A202" s="21">
         <v>201</v>
       </c>
@@ -8841,7 +8844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="20" customHeight="1">
       <c r="A203" s="21">
         <v>202</v>
       </c>
@@ -8858,7 +8861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="20" customHeight="1">
       <c r="A204" s="21">
         <v>203</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="20" customHeight="1">
       <c r="A205" s="21">
         <v>204</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="20" customHeight="1">
       <c r="A206" s="21">
         <v>205</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="20" customHeight="1">
       <c r="A207" s="21">
         <v>206</v>
       </c>
@@ -8926,7 +8929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="20" customHeight="1">
       <c r="A208" s="21">
         <v>207</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" ht="20" customHeight="1">
       <c r="A209" s="21">
         <v>208</v>
       </c>
@@ -8960,7 +8963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" ht="20" customHeight="1">
       <c r="A210" s="21">
         <v>209</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" ht="20" customHeight="1">
       <c r="A211" s="21">
         <v>210</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" ht="20" customHeight="1">
       <c r="A212" s="21">
         <v>211</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" ht="20" customHeight="1">
       <c r="A213" s="21">
         <v>212</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" ht="20" customHeight="1">
       <c r="A214" s="21">
         <v>213</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" ht="20" customHeight="1">
       <c r="A215" s="21">
         <v>214</v>
       </c>
@@ -9062,7 +9065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" ht="20" customHeight="1">
       <c r="A216" s="21">
         <v>215</v>
       </c>
@@ -9079,7 +9082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" ht="20" customHeight="1">
       <c r="A217" s="21">
         <v>216</v>
       </c>
@@ -9096,7 +9099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" ht="20" customHeight="1">
       <c r="A218" s="21">
         <v>217</v>
       </c>
@@ -9113,7 +9116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" ht="20" customHeight="1">
       <c r="A219" s="21">
         <v>218</v>
       </c>
@@ -9130,7 +9133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" ht="20" customHeight="1">
       <c r="A220" s="21">
         <v>219</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="20" customHeight="1">
       <c r="A221" s="21">
         <v>220</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" ht="20" customHeight="1">
       <c r="A222" s="21">
         <v>221</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" ht="20" customHeight="1">
       <c r="A223" s="21">
         <v>222</v>
       </c>
@@ -9198,7 +9201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" ht="20" customHeight="1">
       <c r="A224" s="21">
         <v>223</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="20" customHeight="1">
       <c r="A225" s="21">
         <v>224</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="20" customHeight="1">
       <c r="A226" s="21">
         <v>225</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="20" customHeight="1">
       <c r="A227" s="21">
         <v>226</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="20" customHeight="1">
       <c r="A228" s="21">
         <v>227</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="20" customHeight="1">
       <c r="A229" s="21">
         <v>228</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="20" customHeight="1">
       <c r="A230" s="21">
         <v>229</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="20" customHeight="1">
       <c r="A231" s="21">
         <v>230</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="20" customHeight="1">
       <c r="A232" s="21">
         <v>231</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="20" customHeight="1">
       <c r="A233" s="21">
         <v>232</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="20" customHeight="1">
       <c r="A234" s="21">
         <v>233</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="20" customHeight="1">
       <c r="A235" s="21">
         <v>234</v>
       </c>
@@ -9402,7 +9405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="20" customHeight="1">
       <c r="A236" s="21">
         <v>235</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="20" customHeight="1">
       <c r="A237" s="21">
         <v>236</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="20" customHeight="1">
       <c r="A238" s="21">
         <v>237</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="20" customHeight="1">
       <c r="A239" s="21">
         <v>238</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="20" customHeight="1">
       <c r="A240" s="21">
         <v>239</v>
       </c>
@@ -9487,7 +9490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="20" customHeight="1">
       <c r="A241" s="21">
         <v>240</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="20" customHeight="1">
       <c r="A242" s="21">
         <v>241</v>
       </c>
@@ -9521,7 +9524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="20" customHeight="1">
       <c r="A243" s="21">
         <v>242</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="20" customHeight="1">
       <c r="A244" s="21">
         <v>243</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="20" customHeight="1">
       <c r="A245" s="21">
         <v>244</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="20" customHeight="1">
       <c r="A246" s="21">
         <v>245</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="20" customHeight="1">
       <c r="A247" s="21">
         <v>246</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="20" customHeight="1">
       <c r="A248" s="21">
         <v>247</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="20" customHeight="1">
       <c r="A249" s="21">
         <v>248</v>
       </c>
@@ -9640,7 +9643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="20" customHeight="1">
       <c r="A250" s="21">
         <v>249</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="20" customHeight="1">
       <c r="A251" s="21">
         <v>250</v>
       </c>
@@ -9674,7 +9677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="20" customHeight="1">
       <c r="A252" s="21">
         <v>251</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="20" customHeight="1">
       <c r="A253" s="21">
         <v>252</v>
       </c>
@@ -9708,7 +9711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="20" customHeight="1">
       <c r="A254" s="21">
         <v>253</v>
       </c>
@@ -9725,7 +9728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="20" customHeight="1">
       <c r="A255" s="21">
         <v>254</v>
       </c>
@@ -9742,7 +9745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="20" customHeight="1">
       <c r="A256" s="21">
         <v>255</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="20" customHeight="1">
       <c r="A257" s="21">
         <v>256</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="20" customHeight="1">
       <c r="A258" s="21">
         <v>257</v>
       </c>
@@ -9793,7 +9796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="20" customHeight="1">
       <c r="A259" s="21">
         <v>258</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="20" customHeight="1">
       <c r="A260" s="21">
         <v>259</v>
       </c>
@@ -9827,7 +9830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="20" customHeight="1">
       <c r="A261" s="21">
         <v>260</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="20" customHeight="1">
       <c r="A262" s="21">
         <v>261</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="20" customHeight="1">
       <c r="A263" s="21">
         <v>262</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="20" customHeight="1">
       <c r="A264" s="21">
         <v>263</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="20" customHeight="1">
       <c r="A265" s="21">
         <v>264</v>
       </c>
@@ -9912,7 +9915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="20" customHeight="1">
       <c r="A266" s="21">
         <v>265</v>
       </c>
@@ -9929,7 +9932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="20" customHeight="1">
       <c r="A267" s="21">
         <v>266</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="20" customHeight="1">
       <c r="A268" s="21">
         <v>267</v>
       </c>
@@ -9963,7 +9966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="20" customHeight="1">
       <c r="A269" s="21">
         <v>268</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="20" customHeight="1">
       <c r="A270" s="21">
         <v>269</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="20" customHeight="1">
       <c r="A271" s="21">
         <v>270</v>
       </c>
@@ -10014,7 +10017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="20" customHeight="1">
       <c r="A272" s="21">
         <v>271</v>
       </c>
@@ -10031,7 +10034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" ht="20" customHeight="1">
       <c r="A273" s="21">
         <v>272</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" ht="20" customHeight="1">
       <c r="A274" s="21">
         <v>273</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" ht="20" customHeight="1">
       <c r="A275" s="21">
         <v>274</v>
       </c>
@@ -10082,7 +10085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" ht="20" customHeight="1">
       <c r="A276" s="21">
         <v>275</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" ht="20" customHeight="1">
       <c r="A277" s="21">
         <v>276</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" ht="20" customHeight="1">
       <c r="A278" s="21">
         <v>277</v>
       </c>
@@ -10133,7 +10136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" ht="20" customHeight="1">
       <c r="A279" s="21">
         <v>278</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" ht="20" customHeight="1">
       <c r="A280" s="21">
         <v>279</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" ht="20" customHeight="1">
       <c r="A281" s="21">
         <v>280</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" ht="20" customHeight="1">
       <c r="A282" s="21">
         <v>281</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" ht="20" customHeight="1">
       <c r="A283" s="21">
         <v>282</v>
       </c>
@@ -10218,7 +10221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" ht="20" customHeight="1">
       <c r="A284" s="21">
         <v>283</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" ht="20" customHeight="1">
       <c r="A285" s="21">
         <v>284</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" ht="20" customHeight="1">
       <c r="A286" s="21">
         <v>285</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" ht="20" customHeight="1">
       <c r="A287" s="21">
         <v>286</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" ht="20" customHeight="1">
       <c r="A288" s="21">
         <v>287</v>
       </c>
@@ -10303,7 +10306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="20" customHeight="1">
       <c r="A289" s="21">
         <v>288</v>
       </c>
@@ -10320,7 +10323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="20" customHeight="1">
       <c r="A290" s="21">
         <v>289</v>
       </c>
@@ -10337,7 +10340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="20" customHeight="1">
       <c r="A291" s="21">
         <v>290</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="20" customHeight="1">
       <c r="A292" s="21">
         <v>291</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="20" customHeight="1">
       <c r="A293" s="21">
         <v>292</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="20" customHeight="1">
       <c r="A294" s="21">
         <v>293</v>
       </c>
@@ -10405,7 +10408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="20" customHeight="1">
       <c r="A295" s="21">
         <v>294</v>
       </c>
@@ -10422,7 +10425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="20" customHeight="1">
       <c r="A296" s="21">
         <v>295</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="20" customHeight="1">
       <c r="A297" s="21">
         <v>296</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="20" customHeight="1">
       <c r="A298" s="21">
         <v>297</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="20" customHeight="1">
       <c r="A299" s="21">
         <v>298</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="20" customHeight="1">
       <c r="A300" s="21">
         <v>299</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="20" customHeight="1">
       <c r="A301" s="21">
         <v>300</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="20" customHeight="1">
       <c r="A302" s="21">
         <v>301</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="20" customHeight="1">
       <c r="A303" s="21">
         <v>302</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="20" customHeight="1">
       <c r="A304" s="21">
         <v>303</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="20" customHeight="1">
       <c r="A305" s="21">
         <v>304</v>
       </c>
@@ -10592,7 +10595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="20" customHeight="1">
       <c r="A306" s="21">
         <v>305</v>
       </c>
@@ -10609,7 +10612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="20" customHeight="1">
       <c r="A307" s="21">
         <v>306</v>
       </c>
@@ -10626,7 +10629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="20" customHeight="1">
       <c r="A308" s="21">
         <v>307</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="20" customHeight="1">
       <c r="A309" s="21">
         <v>308</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="20" customHeight="1">
       <c r="A310" s="21">
         <v>309</v>
       </c>
@@ -10677,7 +10680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="20" customHeight="1">
       <c r="A311" s="21">
         <v>310</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="20" customHeight="1">
       <c r="A312" s="21">
         <v>311</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="20" customHeight="1">
       <c r="A313" s="21">
         <v>312</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="20" customHeight="1">
       <c r="A314" s="21">
         <v>313</v>
       </c>
@@ -10745,7 +10748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="20" customHeight="1">
       <c r="A315" s="21">
         <v>314</v>
       </c>
@@ -10762,7 +10765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="20" customHeight="1">
       <c r="A316" s="21">
         <v>315</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="20" customHeight="1">
       <c r="A317" s="21">
         <v>316</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="20" customHeight="1">
       <c r="A318" s="21">
         <v>317</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="20" customHeight="1">
       <c r="A319" s="21">
         <v>318</v>
       </c>
@@ -10830,7 +10833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="20" customHeight="1">
       <c r="A320" s="21">
         <v>319</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="20" customHeight="1">
       <c r="A321" s="21">
         <v>320</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="20" customHeight="1">
       <c r="A322" s="21">
         <v>321</v>
       </c>
@@ -10881,7 +10884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="20" customHeight="1">
       <c r="A323" s="21">
         <v>322</v>
       </c>
@@ -10898,7 +10901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="20" customHeight="1">
       <c r="A324" s="21">
         <v>323</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="20" customHeight="1">
       <c r="A325" s="21">
         <v>324</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="20" customHeight="1">
       <c r="A326" s="21">
         <v>325</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="20" customHeight="1">
       <c r="A327" s="21">
         <v>326</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="20" customHeight="1">
       <c r="A328" s="21">
         <v>327</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="20" customHeight="1">
       <c r="A329" s="21">
         <v>328</v>
       </c>
@@ -11000,7 +11003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="20" customHeight="1">
       <c r="A330" s="21">
         <v>329</v>
       </c>
@@ -11017,7 +11020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="20" customHeight="1">
       <c r="A331" s="21">
         <v>330</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="20" customHeight="1">
       <c r="A332" s="21">
         <v>331</v>
       </c>
@@ -11051,7 +11054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="20" customHeight="1">
       <c r="A333" s="21">
         <v>332</v>
       </c>
@@ -11068,7 +11071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="20" customHeight="1">
       <c r="A334" s="21">
         <v>333</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="20" customHeight="1">
       <c r="A335" s="21">
         <v>334</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="20" customHeight="1">
       <c r="A336" s="21">
         <v>335</v>
       </c>
@@ -11119,7 +11122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="20" customHeight="1">
       <c r="A337" s="21">
         <v>336</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="20" customHeight="1">
       <c r="A338" s="21">
         <v>337</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="20" customHeight="1">
       <c r="A339" s="21">
         <v>338</v>
       </c>
@@ -11170,7 +11173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="20" customHeight="1">
       <c r="A340" s="21">
         <v>339</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="20" customHeight="1">
       <c r="A341" s="21">
         <v>340</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="20" customHeight="1">
       <c r="A342" s="21">
         <v>341</v>
       </c>
@@ -11221,7 +11224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="20" customHeight="1">
       <c r="A343" s="21">
         <v>342</v>
       </c>
@@ -11238,7 +11241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="20" customHeight="1">
       <c r="A344" s="21">
         <v>343</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="20" customHeight="1">
       <c r="A345" s="21">
         <v>344</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="20" customHeight="1">
       <c r="A346" s="21">
         <v>345</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="20" customHeight="1">
       <c r="A347" s="21">
         <v>346</v>
       </c>
@@ -11306,7 +11309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="20" customHeight="1">
       <c r="A348" s="21">
         <v>347</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="20" customHeight="1">
       <c r="A349" s="21">
         <v>348</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="20" customHeight="1">
       <c r="A350" s="21">
         <v>349</v>
       </c>
@@ -11357,7 +11360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="20" customHeight="1">
       <c r="A351" s="21">
         <v>350</v>
       </c>
@@ -11374,7 +11377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="20" customHeight="1">
       <c r="A352" s="21">
         <v>351</v>
       </c>
@@ -11391,7 +11394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="20" customHeight="1">
       <c r="A353" s="21">
         <v>352</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="20" customHeight="1">
       <c r="A354" s="21">
         <v>353</v>
       </c>
@@ -11425,7 +11428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="20" customHeight="1">
       <c r="A355" s="21">
         <v>354</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="20" customHeight="1">
       <c r="A356" s="21">
         <v>355</v>
       </c>
@@ -11459,7 +11462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="20" customHeight="1">
       <c r="A357" s="21">
         <v>356</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="20" customHeight="1">
       <c r="A358" s="21">
         <v>357</v>
       </c>
@@ -11493,7 +11496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="20" customHeight="1">
       <c r="A359" s="21">
         <v>358</v>
       </c>
@@ -11510,7 +11513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="20" customHeight="1">
       <c r="A360" s="21">
         <v>359</v>
       </c>
@@ -11527,7 +11530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="20" customHeight="1">
       <c r="A361" s="21">
         <v>360</v>
       </c>
@@ -11544,7 +11547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="20" customHeight="1">
       <c r="A362" s="21">
         <v>361</v>
       </c>
@@ -11561,7 +11564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="20" customHeight="1">
       <c r="A363" s="21">
         <v>362</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="20" customHeight="1">
       <c r="A364" s="21">
         <v>363</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="20" customHeight="1">
       <c r="A365" s="21">
         <v>364</v>
       </c>
@@ -11612,7 +11615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="20" customHeight="1">
       <c r="A366" s="21">
         <v>365</v>
       </c>
@@ -11629,7 +11632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="20" customHeight="1">
       <c r="A367" s="21">
         <v>366</v>
       </c>
@@ -11646,7 +11649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="20" customHeight="1">
       <c r="A368" s="21">
         <v>367</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" ht="20" customHeight="1">
       <c r="A369" s="21">
         <v>368</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" ht="20" customHeight="1">
       <c r="A370" s="21">
         <v>369</v>
       </c>
@@ -11697,7 +11700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" ht="20" customHeight="1">
       <c r="A371" s="21">
         <v>370</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" ht="20" customHeight="1">
       <c r="A372" s="21">
         <v>371</v>
       </c>
@@ -11731,7 +11734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" ht="20" customHeight="1">
       <c r="A373" s="21">
         <v>372</v>
       </c>
@@ -11748,7 +11751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" ht="20" customHeight="1">
       <c r="A374" s="21">
         <v>373</v>
       </c>
@@ -11765,7 +11768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" ht="20" customHeight="1">
       <c r="A375" s="21">
         <v>374</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" ht="20" customHeight="1">
       <c r="A376" s="21">
         <v>375</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" ht="20" customHeight="1">
       <c r="A377" s="21">
         <v>376</v>
       </c>
@@ -11816,7 +11819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" ht="20" customHeight="1">
       <c r="A378" s="21">
         <v>377</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" ht="20" customHeight="1">
       <c r="A379" s="21">
         <v>378</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" ht="20" customHeight="1">
       <c r="A380" s="21">
         <v>379</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" ht="20" customHeight="1">
       <c r="A381" s="21">
         <v>380</v>
       </c>
@@ -11884,7 +11887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" ht="20" customHeight="1">
       <c r="A382" s="21">
         <v>381</v>
       </c>
@@ -11901,7 +11904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" ht="20" customHeight="1">
       <c r="A383" s="21">
         <v>382</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" ht="20" customHeight="1">
       <c r="A384" s="21">
         <v>383</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="20" customHeight="1">
       <c r="A385" s="21">
         <v>384</v>
       </c>
@@ -11952,7 +11955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="20" customHeight="1">
       <c r="A386" s="21">
         <v>385</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="20" customHeight="1">
       <c r="A387" s="21">
         <v>386</v>
       </c>
@@ -11986,7 +11989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="20" customHeight="1">
       <c r="A388" s="21">
         <v>387</v>
       </c>
@@ -12003,7 +12006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="20" customHeight="1">
       <c r="A389" s="21">
         <v>388</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="20" customHeight="1">
       <c r="A390" s="21">
         <v>389</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="20" customHeight="1">
       <c r="A391" s="21">
         <v>390</v>
       </c>
@@ -12054,7 +12057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="20" customHeight="1">
       <c r="A392" s="21">
         <v>391</v>
       </c>
@@ -12071,7 +12074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" ht="20" customHeight="1">
       <c r="A393" s="21">
         <v>392</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" ht="20" customHeight="1">
       <c r="A394" s="21">
         <v>393</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" ht="20" customHeight="1">
       <c r="A395" s="21">
         <v>394</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" ht="20" customHeight="1">
       <c r="A396" s="21">
         <v>395</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" ht="20" customHeight="1">
       <c r="A397" s="21">
         <v>396</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" ht="20" customHeight="1">
       <c r="A398" s="21">
         <v>397</v>
       </c>
@@ -12173,7 +12176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" ht="20" customHeight="1">
       <c r="A399" s="21">
         <v>398</v>
       </c>
@@ -12190,7 +12193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" ht="20" customHeight="1">
       <c r="A400" s="21">
         <v>399</v>
       </c>
@@ -12207,7 +12210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" ht="20" customHeight="1">
       <c r="A401" s="21">
         <v>400</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" ht="20" customHeight="1">
       <c r="A402" s="21">
         <v>401</v>
       </c>
@@ -12241,7 +12244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" ht="20" customHeight="1">
       <c r="A403" s="21">
         <v>402</v>
       </c>
@@ -12258,7 +12261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" ht="20" customHeight="1">
       <c r="A404" s="21">
         <v>403</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" ht="20" customHeight="1">
       <c r="A405" s="21">
         <v>404</v>
       </c>
@@ -12292,7 +12295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" ht="20" customHeight="1">
       <c r="A406" s="21">
         <v>405</v>
       </c>
@@ -12309,7 +12312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" ht="20" customHeight="1">
       <c r="A407" s="21">
         <v>406</v>
       </c>
@@ -12326,7 +12329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" ht="20" customHeight="1">
       <c r="A408" s="21">
         <v>407</v>
       </c>
@@ -12343,7 +12346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" ht="20" customHeight="1">
       <c r="A409" s="21">
         <v>408</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" ht="20" customHeight="1">
       <c r="A410" s="21">
         <v>409</v>
       </c>
@@ -12377,7 +12380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" ht="20" customHeight="1">
       <c r="A411" s="21">
         <v>410</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" ht="20" customHeight="1">
       <c r="A412" s="21">
         <v>411</v>
       </c>
@@ -12411,7 +12414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" ht="20" customHeight="1">
       <c r="A413" s="21">
         <v>412</v>
       </c>
@@ -12428,7 +12431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" ht="20" customHeight="1">
       <c r="A414" s="21">
         <v>413</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" ht="20" customHeight="1">
       <c r="A415" s="21">
         <v>414</v>
       </c>
@@ -12462,7 +12465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" ht="20" customHeight="1">
       <c r="A416" s="21">
         <v>415</v>
       </c>
@@ -12479,7 +12482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" ht="20" customHeight="1">
       <c r="A417" s="21">
         <v>416</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5" ht="20" customHeight="1">
       <c r="A418" s="21">
         <v>417</v>
       </c>
@@ -12513,7 +12516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" ht="20" customHeight="1">
       <c r="A419" s="21">
         <v>418</v>
       </c>
@@ -12530,7 +12533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" ht="20" customHeight="1">
       <c r="A420" s="21">
         <v>419</v>
       </c>
@@ -12547,7 +12550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" ht="20" customHeight="1">
       <c r="A421" s="21">
         <v>420</v>
       </c>
@@ -12564,7 +12567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" ht="20" customHeight="1">
       <c r="A422" s="21">
         <v>421</v>
       </c>
@@ -12581,7 +12584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" ht="20" customHeight="1">
       <c r="A423" s="21">
         <v>422</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" ht="20" customHeight="1">
       <c r="A424" s="21">
         <v>423</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" ht="20" customHeight="1">
       <c r="A425" s="21">
         <v>424</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" ht="20" customHeight="1">
       <c r="A426" s="21">
         <v>425</v>
       </c>
@@ -12649,7 +12652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" ht="20" customHeight="1">
       <c r="A427" s="21">
         <v>426</v>
       </c>
@@ -12666,7 +12669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" ht="20" customHeight="1">
       <c r="A428" s="21">
         <v>427</v>
       </c>
@@ -12683,7 +12686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" ht="20" customHeight="1">
       <c r="A429" s="21">
         <v>428</v>
       </c>
@@ -12700,7 +12703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" ht="20" customHeight="1">
       <c r="A430" s="21">
         <v>429</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" ht="20" customHeight="1">
       <c r="A431" s="21">
         <v>430</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5" ht="20" customHeight="1">
       <c r="A432" s="21">
         <v>431</v>
       </c>
@@ -12751,7 +12754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" ht="20" customHeight="1">
       <c r="A433" s="21">
         <v>432</v>
       </c>
@@ -12768,7 +12771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" ht="20" customHeight="1">
       <c r="A434" s="21">
         <v>433</v>
       </c>
@@ -12785,7 +12788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" ht="20" customHeight="1">
       <c r="A435" s="21">
         <v>434</v>
       </c>
@@ -12802,7 +12805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" ht="20" customHeight="1">
       <c r="A436" s="21">
         <v>435</v>
       </c>
@@ -12819,7 +12822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5" ht="20" customHeight="1">
       <c r="A437" s="21">
         <v>436</v>
       </c>
@@ -12836,7 +12839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5" ht="20" customHeight="1">
       <c r="A438" s="21">
         <v>437</v>
       </c>
@@ -12853,7 +12856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5" ht="20" customHeight="1">
       <c r="A439" s="21">
         <v>438</v>
       </c>
@@ -12870,7 +12873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5" ht="20" customHeight="1">
       <c r="A440" s="21">
         <v>439</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5" ht="20" customHeight="1">
       <c r="A441" s="21">
         <v>440</v>
       </c>
@@ -12904,7 +12907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5" ht="20" customHeight="1">
       <c r="A442" s="21">
         <v>441</v>
       </c>
@@ -12921,7 +12924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5" ht="20" customHeight="1">
       <c r="A443" s="21">
         <v>442</v>
       </c>
@@ -12938,7 +12941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5" ht="20" customHeight="1">
       <c r="A444" s="21">
         <v>443</v>
       </c>
@@ -12955,7 +12958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5" ht="20" customHeight="1">
       <c r="A445" s="21">
         <v>444</v>
       </c>
@@ -12972,7 +12975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5" ht="20" customHeight="1">
       <c r="A446" s="21">
         <v>445</v>
       </c>
@@ -12989,7 +12992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5" ht="20" customHeight="1">
       <c r="A447" s="21">
         <v>446</v>
       </c>
@@ -13006,7 +13009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5" ht="20" customHeight="1">
       <c r="A448" s="21">
         <v>447</v>
       </c>
@@ -13023,7 +13026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" ht="20" customHeight="1">
       <c r="A449" s="21">
         <v>448</v>
       </c>
@@ -13040,7 +13043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" ht="20" customHeight="1">
       <c r="A450" s="21">
         <v>449</v>
       </c>
@@ -13057,7 +13060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" ht="20" customHeight="1">
       <c r="A451" s="21">
         <v>450</v>
       </c>
@@ -13074,7 +13077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" ht="20" customHeight="1">
       <c r="A452" s="21">
         <v>451</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" ht="20" customHeight="1">
       <c r="A453" s="21">
         <v>452</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" ht="20" customHeight="1">
       <c r="A454" s="21">
         <v>453</v>
       </c>
@@ -13125,7 +13128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" ht="20" customHeight="1">
       <c r="A455" s="21">
         <v>454</v>
       </c>
@@ -13142,7 +13145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" ht="20" customHeight="1">
       <c r="A456" s="21">
         <v>455</v>
       </c>
@@ -13159,7 +13162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" ht="20" customHeight="1">
       <c r="A457" s="21">
         <v>456</v>
       </c>
@@ -13176,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" ht="20" customHeight="1">
       <c r="A458" s="21">
         <v>457</v>
       </c>
@@ -13193,7 +13196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" ht="20" customHeight="1">
       <c r="A459" s="21">
         <v>458</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" ht="20" customHeight="1">
       <c r="A460" s="21">
         <v>459</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" ht="20" customHeight="1">
       <c r="A461" s="21">
         <v>460</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" ht="20" customHeight="1">
       <c r="A462" s="21">
         <v>461</v>
       </c>
@@ -13261,7 +13264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" ht="20" customHeight="1">
       <c r="A463" s="21">
         <v>462</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" ht="20" customHeight="1">
       <c r="A464" s="21">
         <v>463</v>
       </c>
@@ -13295,7 +13298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" ht="20" customHeight="1">
       <c r="A465" s="21">
         <v>464</v>
       </c>
@@ -13312,7 +13315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" ht="20" customHeight="1">
       <c r="A466" s="21">
         <v>465</v>
       </c>
@@ -13329,7 +13332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" ht="20" customHeight="1">
       <c r="A467" s="21">
         <v>466</v>
       </c>
@@ -13346,7 +13349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" ht="20" customHeight="1">
       <c r="A468" s="21">
         <v>467</v>
       </c>
@@ -13363,7 +13366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" ht="20" customHeight="1">
       <c r="A469" s="21">
         <v>468</v>
       </c>
@@ -13380,7 +13383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" ht="20" customHeight="1">
       <c r="A470" s="21">
         <v>469</v>
       </c>
@@ -13397,7 +13400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" ht="20" customHeight="1">
       <c r="A471" s="21">
         <v>470</v>
       </c>
@@ -13414,7 +13417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" ht="20" customHeight="1">
       <c r="A472" s="21">
         <v>471</v>
       </c>
@@ -13431,7 +13434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" ht="20" customHeight="1">
       <c r="A473" s="21">
         <v>472</v>
       </c>
@@ -13448,7 +13451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" ht="20" customHeight="1">
       <c r="A474" s="21">
         <v>473</v>
       </c>
@@ -13465,7 +13468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" ht="20" customHeight="1">
       <c r="A475" s="21">
         <v>474</v>
       </c>
@@ -13482,7 +13485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" ht="20" customHeight="1">
       <c r="A476" s="21">
         <v>475</v>
       </c>
@@ -13499,7 +13502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" ht="20" customHeight="1">
       <c r="A477" s="21">
         <v>476</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" ht="20" customHeight="1">
       <c r="A478" s="21">
         <v>477</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" ht="20" customHeight="1">
       <c r="A479" s="21">
         <v>478</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" ht="20" customHeight="1">
       <c r="A480" s="21">
         <v>479</v>
       </c>
@@ -13567,7 +13570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:5" ht="20" customHeight="1">
       <c r="A481" s="21">
         <v>480</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:5" ht="20" customHeight="1">
       <c r="A482" s="21">
         <v>481</v>
       </c>
@@ -13601,7 +13604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:5" ht="20" customHeight="1">
       <c r="A483" s="21">
         <v>482</v>
       </c>
@@ -13618,7 +13621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:5" ht="20" customHeight="1">
       <c r="A484" s="21">
         <v>483</v>
       </c>
@@ -13635,7 +13638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:5" ht="20" customHeight="1">
       <c r="A485" s="21">
         <v>484</v>
       </c>
@@ -13652,7 +13655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:5" ht="20" customHeight="1">
       <c r="A486" s="21">
         <v>485</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:5" ht="20" customHeight="1">
       <c r="A487" s="21">
         <v>486</v>
       </c>
@@ -13686,7 +13689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:5" ht="20" customHeight="1">
       <c r="A488" s="21">
         <v>487</v>
       </c>
@@ -13703,7 +13706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:5" ht="20" customHeight="1">
       <c r="A489" s="21">
         <v>488</v>
       </c>
@@ -13720,7 +13723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:5" ht="20" customHeight="1">
       <c r="A490" s="21">
         <v>489</v>
       </c>
@@ -13737,7 +13740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:5" ht="20" customHeight="1">
       <c r="A491" s="21">
         <v>490</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:5" ht="20" customHeight="1">
       <c r="A492" s="21">
         <v>491</v>
       </c>
@@ -13771,7 +13774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:5" ht="20" customHeight="1">
       <c r="A493" s="21">
         <v>492</v>
       </c>
@@ -13788,7 +13791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:5" ht="20" customHeight="1">
       <c r="A494" s="21">
         <v>493</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:5" ht="20" customHeight="1">
       <c r="A495" s="21">
         <v>494</v>
       </c>
@@ -13822,7 +13825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:5" ht="20" customHeight="1">
       <c r="A496" s="21">
         <v>495</v>
       </c>
@@ -13839,7 +13842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" ht="20" customHeight="1">
       <c r="A497" s="21">
         <v>496</v>
       </c>
@@ -13856,7 +13859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" ht="20" customHeight="1">
       <c r="A498" s="21">
         <v>497</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" ht="20" customHeight="1">
       <c r="A499" s="21">
         <v>498</v>
       </c>
@@ -13890,7 +13893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" ht="20" customHeight="1">
       <c r="A500" s="21">
         <v>499</v>
       </c>
@@ -13907,7 +13910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" ht="20" customHeight="1">
       <c r="A501" s="21">
         <v>500</v>
       </c>
@@ -13924,7 +13927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:5" ht="20" customHeight="1">
       <c r="A502" s="21">
         <v>501</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:5" ht="20" customHeight="1">
       <c r="A503" s="21">
         <v>502</v>
       </c>
@@ -13958,7 +13961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:5" ht="20" customHeight="1">
       <c r="A504" s="21">
         <v>503</v>
       </c>
@@ -13975,7 +13978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:5" ht="20" customHeight="1">
       <c r="A505" s="21">
         <v>504</v>
       </c>
@@ -14007,7 +14010,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14021,13 +14024,13 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="28">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
@@ -14037,7 +14040,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="28">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -14051,7 +14054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -14065,7 +14068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
@@ -14093,7 +14096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="14">
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
@@ -14121,7 +14124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="14">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="14">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -14149,7 +14152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="14">
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
@@ -14163,7 +14166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="14">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -14177,7 +14180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="14">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -14191,7 +14194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="14">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -14205,7 +14208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="14">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
@@ -14219,7 +14222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="14">
       <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
@@ -14233,7 +14236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="14">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -14247,7 +14250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="14">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -14261,7 +14264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="14">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="14">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="14">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -14303,7 +14306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="14">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="14">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -14331,7 +14334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="14">
       <c r="A25" s="11" t="s">
         <v>35</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="14">
       <c r="A26" s="11" t="s">
         <v>14</v>
       </c>
@@ -14359,7 +14362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="14">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="14">
       <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
@@ -14387,7 +14390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="14">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -14401,7 +14404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="14">
       <c r="A30" s="11" t="s">
         <v>21</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="14">
       <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
@@ -14429,7 +14432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="14">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -14443,7 +14446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="14">
       <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
@@ -14457,7 +14460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="14">
       <c r="A34" s="11" t="s">
         <v>7</v>
       </c>
@@ -14471,7 +14474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="14">
       <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
@@ -14492,13 +14495,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1836AFA0-EF1A-8346-8E5B-AD7E13217C6D}">
-  <dimension ref="A1:X301"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:X75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="76" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="20" customWidth="1"/>
@@ -14507,7 +14510,7 @@
     <col min="5" max="16384" width="8.33203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="20.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -14569,7 +14572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="20.25" customHeight="1">
       <c r="A2" s="25">
         <v>31</v>
       </c>
@@ -14631,7 +14634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="25">
         <v>74</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="25">
         <v>79</v>
       </c>
@@ -14755,7 +14758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" ht="20" customHeight="1">
       <c r="A5" s="25">
         <v>89</v>
       </c>
@@ -14817,7 +14820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="20" customHeight="1">
       <c r="A6" s="25">
         <v>97</v>
       </c>
@@ -14879,7 +14882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" ht="20" customHeight="1">
       <c r="A7" s="25">
         <v>158</v>
       </c>
@@ -14941,7 +14944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" ht="20" customHeight="1">
       <c r="A8" s="25">
         <v>163</v>
       </c>
@@ -15003,7 +15006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" ht="20" customHeight="1">
       <c r="A9" s="25">
         <v>220</v>
       </c>
@@ -15065,7 +15068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" ht="20" customHeight="1">
       <c r="A10" s="25">
         <v>243</v>
       </c>
@@ -15127,7 +15130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" ht="20" customHeight="1">
       <c r="A11" s="25">
         <v>249</v>
       </c>
@@ -15189,7 +15192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="20" customHeight="1">
       <c r="A12" s="25">
         <v>287</v>
       </c>
@@ -15251,7 +15254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="20" customHeight="1">
       <c r="A13" s="25">
         <v>293</v>
       </c>
@@ -15313,7 +15316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="20" customHeight="1">
       <c r="A14" s="25">
         <v>299</v>
       </c>
@@ -15375,7 +15378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="20" customHeight="1">
       <c r="A15" s="25">
         <v>319</v>
       </c>
@@ -15437,7 +15440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="20" customHeight="1">
       <c r="A16" s="25">
         <v>422</v>
       </c>
@@ -15499,7 +15502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" ht="20" customHeight="1">
       <c r="A17" s="25">
         <v>425</v>
       </c>
@@ -15561,7 +15564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="20" customHeight="1">
       <c r="A18" s="25">
         <v>433</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="20" customHeight="1">
       <c r="A19" s="25">
         <v>480</v>
       </c>
@@ -15685,7 +15688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="20" customHeight="1">
       <c r="A20" s="29">
         <v>5</v>
       </c>
@@ -15747,7 +15750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="20" customHeight="1">
       <c r="A21" s="29">
         <v>101</v>
       </c>
@@ -15809,7 +15812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="20" customHeight="1">
       <c r="A22" s="29">
         <v>164</v>
       </c>
@@ -15871,7 +15874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="20" customHeight="1">
       <c r="A23" s="29">
         <v>231</v>
       </c>
@@ -15933,7 +15936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="20" customHeight="1">
       <c r="A24" s="29">
         <v>232</v>
       </c>
@@ -15995,7 +15998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" s="29">
         <v>241</v>
       </c>
@@ -16057,7 +16060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="20" customHeight="1">
       <c r="A26" s="29">
         <v>264</v>
       </c>
@@ -16119,7 +16122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="20" customHeight="1">
       <c r="A27" s="29">
         <v>274</v>
       </c>
@@ -16181,7 +16184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="20" customHeight="1">
       <c r="A28" s="29">
         <v>276</v>
       </c>
@@ -16243,7 +16246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="20" customHeight="1">
       <c r="A29" s="29">
         <v>277</v>
       </c>
@@ -16305,7 +16308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="20" customHeight="1">
       <c r="A30" s="29">
         <v>303</v>
       </c>
@@ -16367,7 +16370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="20" customHeight="1">
       <c r="A31" s="29">
         <v>309</v>
       </c>
@@ -16429,7 +16432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="20" customHeight="1">
       <c r="A32" s="29">
         <v>312</v>
       </c>
@@ -16491,7 +16494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:24" ht="20" customHeight="1">
       <c r="A33" s="29">
         <v>360</v>
       </c>
@@ -16553,7 +16556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" ht="20" customHeight="1">
       <c r="A34" s="29">
         <v>440</v>
       </c>
@@ -16579,7 +16582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" ht="20" customHeight="1">
       <c r="A35" s="29">
         <v>474</v>
       </c>
@@ -16605,13 +16608,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" ht="20" customHeight="1">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="28"/>
     </row>
-    <row r="37" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" ht="20" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>0</v>
       </c>
@@ -16673,7 +16676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" ht="20" customHeight="1">
       <c r="A38" s="25">
         <v>35</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" ht="20" customHeight="1">
       <c r="A39" s="25">
         <v>52</v>
       </c>
@@ -16797,7 +16800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" ht="20" customHeight="1">
       <c r="A40" s="25">
         <v>94</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" ht="20" customHeight="1">
       <c r="A41" s="25">
         <v>112</v>
       </c>
@@ -16921,7 +16924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="20" customHeight="1">
       <c r="A42" s="25">
         <v>121</v>
       </c>
@@ -16983,7 +16986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="20" customHeight="1">
       <c r="A43" s="25">
         <v>129</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:24" ht="20" customHeight="1">
       <c r="A44" s="25">
         <v>149</v>
       </c>
@@ -17107,7 +17110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:24" ht="20" customHeight="1">
       <c r="A45" s="25">
         <v>156</v>
       </c>
@@ -17169,7 +17172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24" ht="20" customHeight="1">
       <c r="A46" s="25">
         <v>188</v>
       </c>
@@ -17231,7 +17234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24" ht="20" customHeight="1">
       <c r="A47" s="25">
         <v>201</v>
       </c>
@@ -17293,7 +17296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24" ht="20" customHeight="1">
       <c r="A48" s="25">
         <v>202</v>
       </c>
@@ -17355,7 +17358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" ht="20" customHeight="1">
       <c r="A49" s="25">
         <v>209</v>
       </c>
@@ -17417,7 +17420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" ht="20" customHeight="1">
       <c r="A50" s="25">
         <v>211</v>
       </c>
@@ -17479,7 +17482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" ht="20" customHeight="1">
       <c r="A51" s="25">
         <v>239</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" ht="20" customHeight="1">
       <c r="A52" s="25">
         <v>318</v>
       </c>
@@ -17603,7 +17606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" ht="20" customHeight="1">
       <c r="A53" s="25">
         <v>430</v>
       </c>
@@ -17665,7 +17668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" ht="20" customHeight="1">
       <c r="A54" s="25">
         <v>465</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" ht="20" customHeight="1">
       <c r="A55" s="25">
         <v>483</v>
       </c>
@@ -17789,7 +17792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" ht="20" customHeight="1">
       <c r="A56" s="29">
         <v>18</v>
       </c>
@@ -17851,7 +17854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" ht="20" customHeight="1">
       <c r="A57" s="29">
         <v>25</v>
       </c>
@@ -17913,7 +17916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" ht="20" customHeight="1">
       <c r="A58" s="29">
         <v>38</v>
       </c>
@@ -17975,7 +17978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" ht="20" customHeight="1">
       <c r="A59" s="29">
         <v>53</v>
       </c>
@@ -18037,7 +18040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" ht="20" customHeight="1">
       <c r="A60" s="29">
         <v>76</v>
       </c>
@@ -18099,7 +18102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24" ht="20" customHeight="1">
       <c r="A61" s="29">
         <v>115</v>
       </c>
@@ -18161,7 +18164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" ht="20" customHeight="1">
       <c r="A62" s="29">
         <v>190</v>
       </c>
@@ -18223,7 +18226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" ht="20" customHeight="1">
       <c r="A63" s="29">
         <v>205</v>
       </c>
@@ -18285,7 +18288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" ht="20" customHeight="1">
       <c r="A64" s="29">
         <v>292</v>
       </c>
@@ -18347,7 +18350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" ht="20" customHeight="1">
       <c r="A65" s="29">
         <v>308</v>
       </c>
@@ -18409,7 +18412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" ht="20" customHeight="1">
       <c r="A66" s="29">
         <v>314</v>
       </c>
@@ -18471,7 +18474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:24" ht="20" customHeight="1">
       <c r="A67" s="29">
         <v>353</v>
       </c>
@@ -18533,7 +18536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" ht="20" customHeight="1">
       <c r="A68" s="29">
         <v>371</v>
       </c>
@@ -18595,7 +18598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:24" ht="20" customHeight="1">
       <c r="A69" s="29">
         <v>442</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" ht="20" customHeight="1">
       <c r="A70" s="29">
         <v>445</v>
       </c>
@@ -18707,7 +18710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:24" ht="20" customHeight="1">
       <c r="A71" s="29">
         <v>446</v>
       </c>
@@ -18757,7 +18760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" ht="20" customHeight="1">
       <c r="A72" s="29">
         <v>454</v>
       </c>
@@ -18783,7 +18786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" ht="20" customHeight="1">
       <c r="A73" s="29">
         <v>490</v>
       </c>
@@ -18809,7 +18812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" ht="20" customHeight="1">
       <c r="A75" s="23" t="s">
         <v>0</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="20" customHeight="1">
       <c r="A76" s="25">
         <v>110</v>
       </c>
@@ -18933,7 +18936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="20" customHeight="1">
       <c r="A77" s="25">
         <v>126</v>
       </c>
@@ -18995,7 +18998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="20" customHeight="1">
       <c r="A78" s="25">
         <v>142</v>
       </c>
@@ -19057,7 +19060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="20" customHeight="1">
       <c r="A79" s="25">
         <v>147</v>
       </c>
@@ -19119,7 +19122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:24" ht="20" customHeight="1">
       <c r="A80" s="25">
         <v>160</v>
       </c>
@@ -19181,7 +19184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="20" customHeight="1">
       <c r="A81" s="25">
         <v>174</v>
       </c>
@@ -19243,7 +19246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="20" customHeight="1">
       <c r="A82" s="25">
         <v>180</v>
       </c>
@@ -19305,7 +19308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:24" ht="20" customHeight="1">
       <c r="A83" s="25">
         <v>199</v>
       </c>
@@ -19367,7 +19370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:24" ht="20" customHeight="1">
       <c r="A84" s="25">
         <v>217</v>
       </c>
@@ -19429,7 +19432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:24" ht="20" customHeight="1">
       <c r="A85" s="25">
         <v>228</v>
       </c>
@@ -19491,7 +19494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:24" ht="20" customHeight="1">
       <c r="A86" s="25">
         <v>240</v>
       </c>
@@ -19553,7 +19556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:24" ht="20" customHeight="1">
       <c r="A87" s="25">
         <v>315</v>
       </c>
@@ -19615,7 +19618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="20" customHeight="1">
       <c r="A88" s="25">
         <v>331</v>
       </c>
@@ -19677,7 +19680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="20" customHeight="1">
       <c r="A89" s="25">
         <v>336</v>
       </c>
@@ -19739,7 +19742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="20" customHeight="1">
       <c r="A90" s="25">
         <v>359</v>
       </c>
@@ -19801,7 +19804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" ht="20" customHeight="1">
       <c r="A91" s="25">
         <v>375</v>
       </c>
@@ -19863,7 +19866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" ht="20" customHeight="1">
       <c r="A92" s="25">
         <v>397</v>
       </c>
@@ -19925,7 +19928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:24" ht="20" customHeight="1">
       <c r="A93" s="25">
         <v>477</v>
       </c>
@@ -19987,7 +19990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:24" ht="20" customHeight="1">
       <c r="A94" s="29">
         <v>8</v>
       </c>
@@ -20049,7 +20052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:24" ht="20" customHeight="1">
       <c r="A95" s="29">
         <v>125</v>
       </c>
@@ -20111,7 +20114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:24" ht="20" customHeight="1">
       <c r="A96" s="29">
         <v>154</v>
       </c>
@@ -20173,7 +20176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" ht="20" customHeight="1">
       <c r="A97" s="29">
         <v>169</v>
       </c>
@@ -20235,7 +20238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" ht="20" customHeight="1">
       <c r="A98" s="29">
         <v>172</v>
       </c>
@@ -20297,7 +20300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" ht="20" customHeight="1">
       <c r="A99" s="29">
         <v>181</v>
       </c>
@@ -20359,7 +20362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="20" customHeight="1">
       <c r="A100" s="29">
         <v>193</v>
       </c>
@@ -20421,7 +20424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" ht="20" customHeight="1">
       <c r="A101" s="29">
         <v>208</v>
       </c>
@@ -20483,7 +20486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" ht="20" customHeight="1">
       <c r="A102" s="29">
         <v>250</v>
       </c>
@@ -20545,7 +20548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:24" ht="20" customHeight="1">
       <c r="A103" s="29">
         <v>270</v>
       </c>
@@ -20607,7 +20610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:24" ht="20" customHeight="1">
       <c r="A104" s="29">
         <v>298</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:24" ht="20" customHeight="1">
       <c r="A105" s="29">
         <v>335</v>
       </c>
@@ -20731,7 +20734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:24" ht="20" customHeight="1">
       <c r="A106" s="29">
         <v>337</v>
       </c>
@@ -20793,7 +20796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:24" ht="20" customHeight="1">
       <c r="A107" s="29">
         <v>369</v>
       </c>
@@ -20855,7 +20858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:24" ht="20" customHeight="1">
       <c r="A108" s="29">
         <v>379</v>
       </c>
@@ -20893,7 +20896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:24" ht="20" customHeight="1">
       <c r="A109" s="29">
         <v>383</v>
       </c>
@@ -20931,7 +20934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:24" ht="20" customHeight="1">
       <c r="A110" s="29">
         <v>491</v>
       </c>
@@ -20945,7 +20948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:24" ht="20" customHeight="1">
       <c r="A111" s="29">
         <v>496</v>
       </c>
@@ -20959,221 +20962,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="25"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="27"/>
-      <c r="D268" s="28"/>
-    </row>
-    <row r="269" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="25"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="27"/>
-      <c r="D269" s="28"/>
-    </row>
-    <row r="270" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="25"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="27"/>
-      <c r="D270" s="28"/>
-    </row>
-    <row r="271" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="25"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="27"/>
-      <c r="D271" s="28"/>
-    </row>
-    <row r="272" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="25"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="27"/>
-      <c r="D272" s="28"/>
-    </row>
-    <row r="273" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="25"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="27"/>
-      <c r="D273" s="28"/>
-    </row>
-    <row r="274" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="25"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="27"/>
-      <c r="D274" s="28"/>
-    </row>
-    <row r="275" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="25"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="27"/>
-      <c r="D275" s="28"/>
-    </row>
-    <row r="276" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="25"/>
-      <c r="B276" s="26"/>
-      <c r="C276" s="27"/>
-      <c r="D276" s="28"/>
-    </row>
-    <row r="277" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="25"/>
-      <c r="B277" s="26"/>
-      <c r="C277" s="27"/>
-      <c r="D277" s="28"/>
-    </row>
-    <row r="278" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="25"/>
-      <c r="B278" s="26"/>
-      <c r="C278" s="27"/>
-      <c r="D278" s="28"/>
-    </row>
-    <row r="279" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="25"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="27"/>
-      <c r="D279" s="28"/>
-    </row>
-    <row r="280" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="25"/>
-      <c r="B280" s="26"/>
-      <c r="C280" s="27"/>
-      <c r="D280" s="28"/>
-    </row>
-    <row r="281" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="25"/>
-      <c r="B281" s="26"/>
-      <c r="C281" s="27"/>
-      <c r="D281" s="28"/>
-    </row>
-    <row r="282" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="25"/>
-      <c r="B282" s="26"/>
-      <c r="C282" s="27"/>
-      <c r="D282" s="28"/>
-    </row>
-    <row r="283" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="25"/>
-      <c r="B283" s="26"/>
-      <c r="C283" s="27"/>
-      <c r="D283" s="28"/>
-    </row>
-    <row r="284" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="25"/>
-      <c r="B284" s="26"/>
-      <c r="C284" s="27"/>
-      <c r="D284" s="28"/>
-    </row>
-    <row r="285" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="25"/>
-      <c r="B285" s="26"/>
-      <c r="C285" s="27"/>
-      <c r="D285" s="28"/>
-    </row>
-    <row r="286" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="29"/>
-      <c r="B286" s="30"/>
-      <c r="C286" s="31"/>
-      <c r="D286" s="32"/>
-    </row>
-    <row r="287" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="29"/>
-      <c r="B287" s="30"/>
-      <c r="C287" s="31"/>
-      <c r="D287" s="32"/>
-    </row>
-    <row r="288" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="29"/>
-      <c r="B288" s="30"/>
-      <c r="C288" s="31"/>
-      <c r="D288" s="32"/>
-    </row>
-    <row r="289" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="29"/>
-      <c r="B289" s="30"/>
-      <c r="C289" s="31"/>
-      <c r="D289" s="32"/>
-    </row>
-    <row r="290" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="29"/>
-      <c r="B290" s="30"/>
-      <c r="C290" s="31"/>
-      <c r="D290" s="32"/>
-    </row>
-    <row r="291" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="29"/>
-      <c r="B291" s="30"/>
-      <c r="C291" s="31"/>
-      <c r="D291" s="32"/>
-    </row>
-    <row r="292" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="29"/>
-      <c r="B292" s="30"/>
-      <c r="C292" s="31"/>
-      <c r="D292" s="32"/>
-    </row>
-    <row r="293" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="29"/>
-      <c r="B293" s="30"/>
-      <c r="C293" s="31"/>
-      <c r="D293" s="32"/>
-    </row>
-    <row r="294" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="29"/>
-      <c r="B294" s="30"/>
-      <c r="C294" s="31"/>
-      <c r="D294" s="32"/>
-    </row>
-    <row r="295" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="29"/>
-      <c r="B295" s="30"/>
-      <c r="C295" s="31"/>
-      <c r="D295" s="32"/>
-    </row>
-    <row r="296" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="29"/>
-      <c r="B296" s="30"/>
-      <c r="C296" s="31"/>
-      <c r="D296" s="32"/>
-    </row>
-    <row r="297" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="29"/>
-      <c r="B297" s="30"/>
-      <c r="C297" s="31"/>
-      <c r="D297" s="32"/>
-    </row>
-    <row r="298" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="29"/>
-      <c r="B298" s="30"/>
-      <c r="C298" s="31"/>
-      <c r="D298" s="32"/>
-    </row>
-    <row r="299" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="29"/>
-      <c r="B299" s="30"/>
-      <c r="C299" s="31"/>
-      <c r="D299" s="32"/>
-    </row>
-    <row r="300" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="29"/>
-      <c r="B300" s="30"/>
-      <c r="C300" s="31"/>
-      <c r="D300" s="32"/>
-    </row>
-    <row r="301" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="29"/>
-      <c r="B301" s="30"/>
-      <c r="C301" s="31"/>
-      <c r="D301" s="32"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:C505">
+  <sortState ref="A2:C457">
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="3" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="35" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="36" max="23" man="1"/>
+    <brk id="74" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>